--- a/assessments/mathematics/MathItems.xlsx
+++ b/assessments/mathematics/MathItems.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28240" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="1048">
   <si>
     <t>NY</t>
   </si>
@@ -3823,11 +3823,6 @@
     <t>36.62 cubic centimeters</t>
   </si>
   <si>
-    <t>The diagram below shows a piece of paper that has been rolled to form a right circular tube.&lt;br/&gt;
-&lt;img src='MA-2013-06-28.png'&gt;&lt;br/&gt;
-Based on the dimensions in the diagram, which of the following is closest to the lateral surface area of the outside of the tube?</t>
-  </si>
-  <si>
     <t>Square &lt;i&gt;WXYZ&lt;/i&gt; is inscribed in circle &lt;i&gt;O&lt;/i&gt;, which has a radius of 8 feet, as shown below.&lt;br/&gt;
 &lt;img src='MA-2013-06-40.png'&gt;&lt;br/&gt;
 Which of the following is closest to the length of  \( \overline{WZ} \)?</t>
@@ -4010,6 +4005,11 @@
 &lt;img src='MA-2013-06-26.png'&gt;&lt;br/&gt;
 Triangle &lt;i&gt;R'S'T'&lt;/i&gt; is the image of triangle &lt;i&gt;RST&lt;/i&gt; after triangle &lt;i&gt;RST&lt;/i&gt; was translated 3 units to the right and 4 units up.&lt;br/&gt;
 What were the coordinates of point &lt;i&gt;R&lt;/i&gt; before the translation?</t>
+  </si>
+  <si>
+    <t>The diagram below shows a piece of paper that has been rolled to form a right circular tube.&lt;br/&gt;
+&lt;img src='MA-2011-06-28.png'&gt;&lt;br/&gt;
+Based on the dimensions in the diagram, which of the following is closest to the lateral surface area of the outside of the tube?</t>
   </si>
 </sst>
 </file>
@@ -4574,10 +4574,10 @@
   <dimension ref="A1:R256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M73" sqref="M73"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5484,9 +5484,7 @@
       <c r="F20" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>535</v>
-      </c>
+      <c r="G20" s="14"/>
       <c r="H20" s="29" t="s">
         <v>533</v>
       </c>
@@ -5499,7 +5497,7 @@
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="52" t="s">
-        <v>990</v>
+        <v>1047</v>
       </c>
       <c r="N20" s="53" t="s">
         <v>963</v>
@@ -7151,7 +7149,7 @@
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="15" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="N56" s="14" t="s">
         <v>760</v>
@@ -7686,7 +7684,7 @@
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="15" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N67" s="25">
         <v>100</v>
@@ -7980,7 +7978,7 @@
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
       <c r="M73" s="60" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="N73" s="53" t="s">
         <v>958</v>
@@ -8176,19 +8174,19 @@
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
       <c r="M77" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="N77" s="53" t="s">
         <v>824</v>
       </c>
       <c r="O77" s="53" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="P77" s="53" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Q77" s="53" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="126" x14ac:dyDescent="0.2">
@@ -8319,19 +8317,19 @@
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
       <c r="M80" s="52" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="N80" s="53" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O80" s="53" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="P80" s="53" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="Q80" s="53" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="196" x14ac:dyDescent="0.2">
@@ -8515,7 +8513,7 @@
       <c r="K84" s="16"/>
       <c r="L84" s="16"/>
       <c r="M84" s="52" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="N84" s="53" t="s">
         <v>969</v>
@@ -10120,7 +10118,7 @@
       </c>
       <c r="L117" s="16"/>
       <c r="M117" s="15" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="N117" s="14">
         <v>20</v>
@@ -12788,16 +12786,16 @@
         <v>925</v>
       </c>
       <c r="N172" s="51" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O172" s="51" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="P172" s="51" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="Q172" s="51" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="R172" s="51"/>
     </row>
@@ -12831,19 +12829,19 @@
       <c r="K173" s="16"/>
       <c r="L173" s="16"/>
       <c r="M173" s="52" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="N173" s="50" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O173" s="50" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="P173" s="50" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="Q173" s="50" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
@@ -12879,16 +12877,16 @@
         <v>926</v>
       </c>
       <c r="N174" s="50" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O174" s="50" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="P174" s="50" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Q174" s="50" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
@@ -12969,16 +12967,16 @@
         <v>932</v>
       </c>
       <c r="N176" s="54" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O176" s="54" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="P176" s="54" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="Q176" s="54" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
@@ -13059,16 +13057,16 @@
         <v>938</v>
       </c>
       <c r="N178" s="53" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O178" s="53" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="P178" s="53" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="Q178" s="53" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
@@ -13281,19 +13279,19 @@
       <c r="K183" s="16"/>
       <c r="L183" s="16"/>
       <c r="M183" s="53" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="N183" s="53" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O183" s="53" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="P183" s="53" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Q183" s="53" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
@@ -14158,16 +14156,16 @@
         <v>536</v>
       </c>
       <c r="N203" s="10" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O203" s="39" t="s">
         <v>786</v>
       </c>
       <c r="P203" s="39" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q203" s="10" t="s">
         <v>1030</v>
-      </c>
-      <c r="Q203" s="10" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
@@ -14518,16 +14516,16 @@
         <v>957</v>
       </c>
       <c r="N211" s="54" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O211" s="54" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="P211" s="54" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Q211" s="54" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
@@ -15427,16 +15425,16 @@
         <v>570</v>
       </c>
       <c r="N232" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O232" s="10" t="s">
         <v>1034</v>
       </c>
-      <c r="O232" s="10" t="s">
+      <c r="P232" s="10" t="s">
         <v>1035</v>
       </c>
-      <c r="P232" s="10" t="s">
+      <c r="Q232" s="10" t="s">
         <v>1036</v>
-      </c>
-      <c r="Q232" s="10" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="233" spans="1:17" ht="64" x14ac:dyDescent="0.2">
@@ -15697,16 +15695,16 @@
         <v>573</v>
       </c>
       <c r="N238" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="O238" s="10" t="s">
         <v>1038</v>
       </c>
-      <c r="O238" s="10" t="s">
+      <c r="P238" s="10" t="s">
         <v>1039</v>
       </c>
-      <c r="P238" s="10" t="s">
+      <c r="Q238" s="10" t="s">
         <v>1040</v>
-      </c>
-      <c r="Q238" s="10" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="239" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -16096,10 +16094,10 @@
         <v>784</v>
       </c>
       <c r="P247" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Q247" s="10" t="s">
         <v>1032</v>
-      </c>
-      <c r="Q247" s="10" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.2">

--- a/assessments/mathematics/MathItems.xlsx
+++ b/assessments/mathematics/MathItems.xlsx
@@ -676,10 +676,6 @@
   <si>
     <t>Standard: 10.P.6 - Solve equations and inequalities including those involving absolute value of linear expressions (e.g., |x - 2| &gt; 5) and apply to the solution of problems.  (AI.P.10) 
 Standard: CCSS.Math.Content.HSA-CED.A.3 - Represent constraints by equations or inequalities, and by systems of equations and/or inequalities, and interpret solutions as viable or non-viable options in a modeling context. For example, represent inequalities describing nutritional and cost constraints on combinations of different foods.*</t>
-  </si>
-  <si>
-    <t>The sum of the lengths of any two sides of a triangle must be greater than the length of the remaining side.
-The lengths of two sides of a triangle are 8 inches and 13 inches. Which of the following represents x, the possible length in inches of the remaining side of the triangle?</t>
   </si>
   <si>
     <t>Standard: 10.N.2 - Simplify numerical expressions, including those involving positive integer exponents or the absolute value, e.g., 3(24 - 1) = 45, 4|3 - 5| + 6 = 14; apply such simplifications in the solution of problems. (AI.N.2) 
@@ -2468,12 +2464,6 @@
     </r>
   </si>
   <si>
-    <t>Wyatt owns a food truck. He offers a selection of 8 types of sandwiches and 4 types of tacos.&lt;br/&gt;
-He will increase his selection of sandwiches by 1 per month.&lt;br/&gt;
-He will increase his selection of tacos by 2 per month.&lt;br/&gt;
-In how many months will Wyatt offer an equal number of sandwich and taco selections?</t>
-  </si>
-  <si>
     <t>A geometric sequence with its first term missing is shown below.&lt;br/&gt;
   ? ,    2,    8,    32, . . .&lt;br/&gt;
 What is the first term in the sequence?</t>
@@ -2485,12 +2475,6 @@
     <t>In the diagram below, \( \triangle PQR \simeq   \triangle STU \). &lt;br/&gt;&lt;img src='MA-2016-06-27.png'&gt;&lt;br/&gt;  Which of the following equations must be true?</t>
   </si>
   <si>
-    <t>Nancy, Bryan, and Jamie combined their money to purchase a laptop. Together they paid a total of $490 for the laptop, including tax.&lt;br/&gt;
-Nancy paid $50 more than Bryan paid.&lt;br/&gt;
-Bryan paid twice as much as Jamie paid.&lt;br/&gt;
-How much did Nancy pay?</t>
-  </si>
-  <si>
     <t>Grace wants to estimate the percentage of students at her school who like yogurt. She will survey a random sample of 30 students from the school’s population of 500 students.&lt;br/&gt;
 Which of the following actions would best improve the validity of Grace’s estimate?</t>
   </si>
@@ -2581,22 +2565,10 @@
     <t>A water tank in the shape of a right circular cylinder has a height of 40 feet and a radius of 15 feet, as shown in the diagram below. &lt;br/&gt;&lt;img src='MA-2015-06-25.png'&gt;&lt;br/&gt; Based on the diagram, what is the volume, in cubic feet, of the water tank?</t>
   </si>
   <si>
-    <t>Two families buy refreshments at a concession stand.&lt;br/&gt;
-Each drink costs &lt;i&gt;d&lt;/i&gt; dollars.&lt;br/&gt;
-Each snack costs &lt;i&gt;s&lt;/i&gt; dollars.&lt;br/&gt;
-The Blake family buys 3 drinks and 2 snacks for $12.&lt;br/&gt;
-The Reese family buys 2 drinks and 4 snacks for $16.&lt;br/&gt;
-What is the cost of one drink at the concession stand?</t>
-  </si>
-  <si>
     <t>The first term in a sequence is 24. Each term in the sequence after the first term is equal to half the previous term, plus 4.&lt;br/&gt;
 Which of the following statements best describes the terms in the sequence as it progresses?</t>
   </si>
   <si>
-    <t>Brandon plans to rent a truck. The cost to rent the truck is $30 for the first four hours plus $10 for each additional hour. He can spend no more than $60.&lt;br/&gt;
-What is the maximum number of hours for which Brandon can rent the truck?</t>
-  </si>
-  <si>
     <t>A green can and a silver can are each in the shape of a right circular cylinder. The cans have the same radius, but the height of the green can is 3 times the height of the silver can.&lt;br/&gt;
 What is the ratio of the volume of the green can to the volume of the silver can?</t>
   </si>
@@ -2666,10 +2638,6 @@
 Which of the following estimates is closest to the amount of sales tax Jaya will pay for the car?</t>
   </si>
   <si>
-    <t>Hooke’s law states that the force needed to stretch a spring varies directly with the length the spring is stretched.&lt;br/&gt;
-A force of 20 newtons will stretch a spring 5 centimeters. What is the total number of centimeters that a force of 60 newtons will stretch the same spring?</t>
-  </si>
-  <si>
     <t>A right circular cone and some of its measurements are shown in the diagram below.&lt;br/&gt; &lt;img src='MA-2014-06-23.png'&gt;&lt;br/&gt; Based on the diagram, which of the following is closest to the volume of the cone?</t>
   </si>
   <si>
@@ -2693,10 +2661,6 @@
   <si>
     <t>Tomás made a scatterplot of data he collected. He determined that the y-intercept of the line of best fit for the scatterplot is negative.&lt;br/&gt;
 Which of the following could be the scatterplot Tomás made?</t>
-  </si>
-  <si>
-    <t>A student is knitting sweaters to give as gifts. The time it takes the student to knit each sweater is 10% less than the time it took the student to knit each previous sweater. It took the student 14 hours to knit the first sweater.&lt;br/&gt;
-Which of the following is closest to the time it will take the student to knit the third sweater?</t>
   </si>
   <si>
     <t>The scatterplot below shows the relationship between the temperature, in degrees Fahrenheit, at a football game and the number of cups of hot chocolate sold during the game. &lt;br/&gt;&lt;img src='MA-2014-06-40.png'&gt;</t>
@@ -2771,10 +2735,6 @@
 Which of the following is the greatest possible median number of miles driven between oil changes?</t>
   </si>
   <si>
-    <t>Brooke rides her bicycle each day. On Monday, she rode the length of Maple Street in 0.4 hour at a constant speed of 15 miles per hour.&lt;br/&gt;
-What is Brooke’s constant speed if she rides the length of Maple Street on Tuesday in 0.3 hour?</t>
-  </si>
-  <si>
     <t>Suzanna surveyed some students to find out if they would attend the homecoming game. The table below shows the students’ responses.&lt;br/&gt;
  &lt;img src='MA-2013-06-30.png'&gt;&lt;br/&gt;
 Which of the following circle graphs &lt;b&gt;best&lt;/b&gt; represents the information in the table?</t>
@@ -2787,10 +2747,6 @@
   <si>
     <t>Which of the following is equivalent to the expression below for all positive values of &lt;i&gt;x&lt;/i&gt;?
 $$ \frac{( x^{2} + x -6)}{(x^{2} + 5x +6)} $$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The distance traveled by a student walking at a constant rate varies directly with the amount of time the student walks. The student walked \( 1 \frac{2}{3} \) miles in \( \frac{2}{3} \) hour.&lt;br/&gt;
-Which of the following represents the relationship between d, the distance in miles walked by the student, and t, the amount of time in hours the student walked? </t>
   </si>
   <si>
     <t>The table below shows the distances jumped by 6 Olympic gold medalists.&lt;br/&gt;
@@ -3007,10 +2963,6 @@
 What is the greatest number of bleacher seat tickets that can be bought for the cost of 12 lower deck seat tickets?</t>
   </si>
   <si>
-    <t>The amount of time it takes mail carriers to deliver the mail in one town is inversely proportional to the number of mail carriers delivering the mail. With 8 mail carriers, it takes 6 hours to deliver the town’s mail.&lt;br/&gt;
-What is the number of hours it would take 4 mail carriers to deliver the town’s mail?</t>
-  </si>
-  <si>
     <t>A stage floor is composed of a rectangle and an isosceles trapezoid. The diagram below shows the stage floor and some of its dimensions.&lt;br/&gt;
 &lt;img src='MA-2011-06-36.png'&gt;&lt;br/&gt;
 What is the perimeter of the stage floor?</t>
@@ -3021,13 +2973,6 @@
 Which of the following proportions can be used to find x, the height in yards of the actual skyscraper?</t>
   </si>
   <si>
-    <t>Ken and Jerome went to the same electronics store. &lt;br/&gt;
-* Ken bought 2 video games and 1 DVD for a total of $105.&lt;br/&gt;
-* Jerome bought 1 video game and 4 DVDs for a total of $105.&lt;br/&gt;
-Each video game cost v dollars and each DVD cost d dollars.&lt;br/&gt;
-Which system of equations can be used to find the cost, in dollars, of each video game and each DVD at the store?</t>
-  </si>
-  <si>
     <t>\( m - 50 \)</t>
   </si>
   <si>
@@ -3658,9 +3603,6 @@
   </si>
   <si>
     <t>y = 3x + 22</t>
-  </si>
-  <si>
-    <t>The width of a rectangle is 4 less than half the length. If  \varphi represents the length, which equation could be used to find the width,  \omega?</t>
   </si>
   <si>
     <t>Which graph represents the solution of 2y + 6 &gt; 4x?</t>
@@ -3994,11 +3936,6 @@
     <t>Triangles &lt;i&gt;GHJ&lt;/i&gt; and &lt;i&gt;KLM&lt;/i&gt; are congruent. The triangles and some of their angle measures are shown in the diagram below.&lt;br/&gt;
 &lt;img src='MA-2013-06-36.png'&gt;&lt;br/&gt;
 Based on the angle measures in the diagram, what is \( m \angle JGH \)?</t>
-  </si>
-  <si>
-    <t>Mr. Thurman's lawn is rectangular and has a width of 92 feet and a length of 147 feet. He is going to cover his entire lawn with grass seed.&lt;br/&gt;
-One bag of grass seed costs $53.47. The grass seed in one bag will cover an area of approximately 5000 square feet.&lt;br/&gt;
-Which of the following estimates is closest to the total cost of the bags of grass seed Mr. Thurman will need to cover his lawn?</t>
   </si>
   <si>
     <t>Triangle &lt;i&gt;R'S'T'&lt;/i&gt; is shown on the coordinate grid below.&lt;br/&gt;
@@ -4010,6 +3947,45 @@
     <t>The diagram below shows a piece of paper that has been rolled to form a right circular tube.&lt;br/&gt;
 &lt;img src='MA-2011-06-28.png'&gt;&lt;br/&gt;
 Based on the dimensions in the diagram, which of the following is closest to the lateral surface area of the outside of the tube?</t>
+  </si>
+  <si>
+    <t>The amount of time it takes mail carriers to deliver the mail in one town is inversely proportional to the number of mail carriers delivering the mail. With 8 mail carriers, it takes 6 hours to deliver the town’s mail. What is the number of hours it would take 4 mail carriers to deliver the town’s mail?</t>
+  </si>
+  <si>
+    <t>Ken and Jerome went to the same electronics store. Ken bought 2 video games and 1 DVD for a total of $105. Jerome bought 1 video game and 4 DVDs for a total of $105. Each video game cost v dollars and each DVD cost d dollars. Which system of equations can be used to find the cost, in dollars, of each video game and each DVD at the store?</t>
+  </si>
+  <si>
+    <t>Mr. Thurman's lawn is rectangular and has a width of 92 feet and a length of 147 feet. He is going to cover his entire lawn with grass seed. One bag of grass seed costs $53.47. The grass seed in one bag will cover an area of approximately 5000 square feet. Which of the following estimates is closest to the total cost of the bags of grass seed Mr. Thurman will need to cover his lawn?</t>
+  </si>
+  <si>
+    <t>Brooke rides her bicycle each day. On Monday, she rode the length of Maple Street in 0.4 hour at a constant speed of 15 miles per hour. What is Brooke’s constant speed if she rides the length of Maple Street on Tuesday in 0.3 hour?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The distance traveled by a student walking at a constant rate varies directly with the amount of time the student walks. The student walked \( 1 \frac{2}{3} \) miles in \( \frac{2}{3} \) hour. Which of the following represents the relationship between d, the distance in miles walked by the student, and t, the amount of time in hours the student walked? </t>
+  </si>
+  <si>
+    <t>Hooke’s law states that the force needed to stretch a spring varies directly with the length the spring is stretched. A force of 20 newtons will stretch a spring 5 centimeters. What is the total number of centimeters that a force of 60 newtons will stretch the same spring?</t>
+  </si>
+  <si>
+    <t>A student is knitting sweaters to give as gifts. The time it takes the student to knit each sweater is 10% less than the time it took the student to knit each previous sweater. It took the student 14 hours to knit the first sweater. Which of the following is closest to the time it will take the student to knit the third sweater?</t>
+  </si>
+  <si>
+    <t>Two families buy refreshments at a concession stand. Each drink costs &lt;i&gt;d&lt;/i&gt; dollars. Each snack costs &lt;i&gt;s&lt;/i&gt; dollars. The Blake family buys 3 drinks and 2 snacks for $12. The Reese family buys 2 drinks and 4 snacks for $16. What is the cost of one drink at the concession stand?</t>
+  </si>
+  <si>
+    <t>Brandon plans to rent a truck. The cost to rent the truck is $30 for the first four hours plus $10 for each additional hour. He can spend no more than $60. What is the maximum number of hours for which Brandon can rent the truck?</t>
+  </si>
+  <si>
+    <t>The sum of the lengths of any two sides of a triangle must be greater than the length of the remaining side. The lengths of two sides of a triangle are 8 inches and 13 inches. Which of the following represents x, the possible length in inches of the remaining side of the triangle?</t>
+  </si>
+  <si>
+    <t>Wyatt owns a food truck. He offers a selection of 8 types of sandwiches and 4 types of tacos. He will increase his selection of sandwiches by 1 per month. He will increase his selection of tacos by 2 per month. In how many months will Wyatt offer an equal number of sandwich and taco selections?</t>
+  </si>
+  <si>
+    <t>Nancy, Bryan, and Jamie combined their money to purchase a laptop. Together they paid a total of $490 for the laptop, including tax. Nancy paid $50 more than Bryan paid. Bryan paid twice as much as Jamie paid. How much did Nancy pay?</t>
+  </si>
+  <si>
+    <t>The width of a rectangle is 4 less than half the length. If  \varphi represents the length, which equation could be used to find the width, \( \omega \)?</t>
   </si>
 </sst>
 </file>
@@ -4571,13 +4547,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:R256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="M181" sqref="M181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4619,13 +4596,13 @@
         <v>105</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>106</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>107</v>
@@ -4655,7 +4632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="79" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>186</v>
       </c>
@@ -4677,7 +4654,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="29"/>
       <c r="I2" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16">
@@ -4685,22 +4662,22 @@
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="15" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>186</v>
       </c>
@@ -4722,7 +4699,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="29"/>
       <c r="I3" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16">
@@ -4730,22 +4707,22 @@
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>186</v>
       </c>
@@ -4767,7 +4744,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="29"/>
       <c r="I4" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16">
@@ -4775,22 +4752,22 @@
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="15" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>186</v>
       </c>
@@ -4812,7 +4789,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="29"/>
       <c r="I5" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16">
@@ -4820,7 +4797,7 @@
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="15" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="N5" s="25">
         <v>875</v>
@@ -4835,7 +4812,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>186</v>
       </c>
@@ -4857,7 +4834,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="29"/>
       <c r="I6" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16">
@@ -4865,22 +4842,22 @@
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="15" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="137" x14ac:dyDescent="0.2">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="137" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>186</v>
       </c>
@@ -4897,12 +4874,12 @@
         <v>13</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="29"/>
       <c r="I7" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16">
@@ -4910,22 +4887,22 @@
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="15" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="N7" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="P7" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="Q7" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="Q7" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>186</v>
       </c>
@@ -4947,7 +4924,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="29"/>
       <c r="I8" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16">
@@ -4955,7 +4932,7 @@
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="N8" s="25">
         <v>900</v>
@@ -4970,7 +4947,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>186</v>
       </c>
@@ -4992,7 +4969,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="29"/>
       <c r="I9" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16">
@@ -5000,7 +4977,7 @@
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="15" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="N9" s="14">
         <v>100</v>
@@ -5015,7 +4992,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="92" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>186</v>
       </c>
@@ -5032,12 +5009,12 @@
         <v>11</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="29"/>
       <c r="I10" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16">
@@ -5045,7 +5022,7 @@
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="15" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="N10" s="14">
         <v>-192</v>
@@ -5060,7 +5037,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>186</v>
       </c>
@@ -5082,7 +5059,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="29"/>
       <c r="I11" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16">
@@ -5090,7 +5067,7 @@
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="15" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="N11" s="14">
         <v>-14</v>
@@ -5105,7 +5082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>186</v>
       </c>
@@ -5127,7 +5104,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="29"/>
       <c r="I12" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="16">
@@ -5135,22 +5112,22 @@
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="O12" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="P12" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="Q12" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="Q12" s="14" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="163" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:17" ht="163" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>186</v>
       </c>
@@ -5172,7 +5149,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="29"/>
       <c r="I13" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="16">
@@ -5180,7 +5157,7 @@
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="15" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="N13" s="14">
         <v>3</v>
@@ -5195,7 +5172,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>186</v>
       </c>
@@ -5217,7 +5194,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="29"/>
       <c r="I14" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="16">
@@ -5225,22 +5202,22 @@
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="15" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>186</v>
       </c>
@@ -5262,7 +5239,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="29"/>
       <c r="I15" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16">
@@ -5270,7 +5247,7 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="15" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="N15" s="25">
         <v>300</v>
@@ -5285,7 +5262,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>186</v>
       </c>
@@ -5302,12 +5279,12 @@
         <v>13</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="29"/>
       <c r="I16" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16">
@@ -5315,22 +5292,22 @@
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="15" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="N16" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="O16" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="O16" s="14" t="s">
+      <c r="P16" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="Q16" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="Q16" s="14" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>186</v>
       </c>
@@ -5347,12 +5324,12 @@
         <v>11</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="29"/>
       <c r="I17" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="16">
@@ -5360,22 +5337,22 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="15" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="N17" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="O17" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="P17" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="Q17" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="Q17" s="14" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="79" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>186</v>
       </c>
@@ -5397,7 +5374,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="29"/>
       <c r="I18" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="16">
@@ -5405,7 +5382,7 @@
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="15" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="N18" s="14">
         <v>3</v>
@@ -5420,7 +5397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>186</v>
       </c>
@@ -5442,7 +5419,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="29"/>
       <c r="I19" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16">
@@ -5450,22 +5427,22 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="15" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="N19" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="O19" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="P19" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="Q19" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="Q19" s="15" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="168" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:17" ht="168" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>186</v>
       </c>
@@ -5486,10 +5463,10 @@
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="J20" s="59">
         <v>0.77</v>
@@ -5497,22 +5474,22 @@
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="52" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="N20" s="53" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="O20" s="53" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="P20" s="53" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="Q20" s="53" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="92" x14ac:dyDescent="0.2">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>186</v>
       </c>
@@ -5534,7 +5511,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="29"/>
       <c r="I21" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="16">
@@ -5542,22 +5519,22 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="15" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="N21" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="O21" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="P21" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="Q21" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="Q21" s="14" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>186</v>
       </c>
@@ -5574,12 +5551,12 @@
         <v>13</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="29"/>
       <c r="I22" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="16">
@@ -5587,22 +5564,22 @@
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="15" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>186</v>
       </c>
@@ -5624,7 +5601,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="29"/>
       <c r="I23" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16">
@@ -5632,7 +5609,7 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="15" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="N23" s="14">
         <v>98</v>
@@ -5647,7 +5624,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>186</v>
       </c>
@@ -5669,7 +5646,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="29"/>
       <c r="I24" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16">
@@ -5677,22 +5654,22 @@
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="15" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>186</v>
       </c>
@@ -5714,7 +5691,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="29"/>
       <c r="I25" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="16">
@@ -5722,7 +5699,7 @@
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="15" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="N25" s="14">
         <v>22</v>
@@ -5754,16 +5731,16 @@
         <v>4</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="16">
@@ -5771,7 +5748,7 @@
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="15" t="s">
-        <v>726</v>
+        <v>1035</v>
       </c>
       <c r="N26" s="14">
         <v>2</v>
@@ -5786,7 +5763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>186</v>
       </c>
@@ -5808,7 +5785,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="29"/>
       <c r="I27" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="16">
@@ -5816,22 +5793,22 @@
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="15" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="N27" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="O27" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="P27" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="P27" s="14" t="s">
+      <c r="Q27" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="Q27" s="14" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>186</v>
       </c>
@@ -5848,12 +5825,12 @@
         <v>11</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="29"/>
       <c r="I28" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="16">
@@ -5861,19 +5838,19 @@
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="15" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="105" x14ac:dyDescent="0.2">
@@ -5893,16 +5870,16 @@
         <v>1</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="16">
@@ -5910,22 +5887,22 @@
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="15" t="s">
-        <v>729</v>
+        <v>1036</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="Q29" s="15" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="163" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="163" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>186</v>
       </c>
@@ -5947,7 +5924,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="29"/>
       <c r="I30" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="16">
@@ -5955,22 +5932,22 @@
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="15" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="Q30" s="14" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>186</v>
       </c>
@@ -5990,10 +5967,10 @@
         <v>15</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J31" s="16"/>
       <c r="K31" s="16">
@@ -6001,7 +5978,7 @@
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="15" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="N31" s="14">
         <v>18</v>
@@ -6016,7 +5993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>186</v>
       </c>
@@ -6033,16 +6010,16 @@
         <v>11</v>
       </c>
       <c r="F32" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="I32" s="28" t="s">
         <v>424</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>922</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>425</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="16">
@@ -6050,22 +6027,22 @@
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>186</v>
       </c>
@@ -6085,10 +6062,10 @@
         <v>18</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J33" s="16"/>
       <c r="K33" s="16">
@@ -6096,7 +6073,7 @@
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="15" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="N33" s="25">
         <v>100</v>
@@ -6111,7 +6088,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>186</v>
       </c>
@@ -6131,10 +6108,10 @@
         <v>18</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="16">
@@ -6142,7 +6119,7 @@
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="15" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="N34" s="14">
         <v>10</v>
@@ -6157,7 +6134,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="79" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>186</v>
       </c>
@@ -6174,13 +6151,13 @@
         <v>11</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J35" s="16"/>
       <c r="K35" s="16">
@@ -6188,22 +6165,22 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="15" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N35" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="O35" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="O35" s="14" t="s">
+      <c r="P35" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="P35" s="14" t="s">
+      <c r="Q35" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="Q35" s="14" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>186</v>
       </c>
@@ -6223,10 +6200,10 @@
         <v>15</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J36" s="16"/>
       <c r="K36" s="16">
@@ -6234,22 +6211,22 @@
       </c>
       <c r="L36" s="16"/>
       <c r="M36" s="15" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="Q36" s="14" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="105" x14ac:dyDescent="0.2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>186</v>
       </c>
@@ -6266,12 +6243,12 @@
         <v>4</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="29"/>
       <c r="I37" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J37" s="16"/>
       <c r="K37" s="16">
@@ -6279,22 +6256,22 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="15" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="N37" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="O37" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="O37" s="14" t="s">
+      <c r="P37" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="P37" s="14" t="s">
+      <c r="Q37" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="Q37" s="14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>186</v>
       </c>
@@ -6314,10 +6291,10 @@
         <v>18</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J38" s="16"/>
       <c r="K38" s="16">
@@ -6325,7 +6302,7 @@
       </c>
       <c r="L38" s="16"/>
       <c r="M38" s="15" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N38" s="14">
         <v>6.4</v>
@@ -6340,7 +6317,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>186</v>
       </c>
@@ -6360,10 +6337,10 @@
         <v>18</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J39" s="16"/>
       <c r="K39" s="16">
@@ -6371,7 +6348,7 @@
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="15" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N39" s="14">
         <v>20</v>
@@ -6386,7 +6363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="92" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="92" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>186</v>
       </c>
@@ -6403,16 +6380,16 @@
         <v>13</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="16">
@@ -6420,22 +6397,22 @@
       </c>
       <c r="L40" s="16"/>
       <c r="M40" s="15" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N40" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="O40" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="O40" s="14" t="s">
+      <c r="P40" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="P40" s="14" t="s">
+      <c r="Q40" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="Q40" s="14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="163" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:17" ht="163" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>186</v>
       </c>
@@ -6455,10 +6432,10 @@
         <v>18</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J41" s="16"/>
       <c r="K41" s="16">
@@ -6466,22 +6443,22 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="15" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="O41" s="14">
         <v>8</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="Q41" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>186</v>
       </c>
@@ -6498,13 +6475,13 @@
         <v>1</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J42" s="16"/>
       <c r="K42" s="16">
@@ -6512,22 +6489,22 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="15" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="N42" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="O42" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="O42" s="14" t="s">
+      <c r="P42" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="P42" s="14" t="s">
+      <c r="Q42" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="Q42" s="14" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="137" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:17" ht="137" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>186</v>
       </c>
@@ -6544,13 +6521,13 @@
         <v>1</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J43" s="16"/>
       <c r="K43" s="16">
@@ -6558,22 +6535,22 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="15" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="N43" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="O43" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="O43" s="14" t="s">
+      <c r="P43" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="P43" s="14" t="s">
+      <c r="Q43" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="Q43" s="14" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="79" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>186</v>
       </c>
@@ -6593,10 +6570,10 @@
         <v>9</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J44" s="16"/>
       <c r="K44" s="16">
@@ -6604,22 +6581,22 @@
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="15" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="N44" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="O44" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="O44" s="14" t="s">
+      <c r="P44" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="P44" s="14" t="s">
+      <c r="Q44" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="Q44" s="14" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="79" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>186</v>
       </c>
@@ -6639,10 +6616,10 @@
         <v>27</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16">
@@ -6650,22 +6627,22 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="15" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="N45" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="O45" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="O45" s="14" t="s">
+      <c r="P45" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="P45" s="14" t="s">
+      <c r="Q45" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="Q45" s="14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="79" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>186</v>
       </c>
@@ -6687,7 +6664,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="29"/>
       <c r="I46" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J46" s="16"/>
       <c r="K46" s="16">
@@ -6695,22 +6672,22 @@
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="15" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="Q46" s="14" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>186</v>
       </c>
@@ -6732,7 +6709,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="29"/>
       <c r="I47" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16">
@@ -6740,7 +6717,7 @@
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="15" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="N47" s="14">
         <v>40</v>
@@ -6755,7 +6732,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>186</v>
       </c>
@@ -6777,7 +6754,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="29"/>
       <c r="I48" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="16">
@@ -6785,22 +6762,22 @@
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="15" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N48" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="O48" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="O48" s="14" t="s">
+      <c r="P48" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="P48" s="14" t="s">
+      <c r="Q48" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="Q48" s="14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>186</v>
       </c>
@@ -6822,7 +6799,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="29"/>
       <c r="I49" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J49" s="16"/>
       <c r="K49" s="16">
@@ -6830,22 +6807,22 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="15" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="N49" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="O49" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="O49" s="14" t="s">
+      <c r="P49" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="P49" s="14" t="s">
+      <c r="Q49" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="Q49" s="14" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>186</v>
       </c>
@@ -6867,7 +6844,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="29"/>
       <c r="I50" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J50" s="16"/>
       <c r="K50" s="16">
@@ -6875,22 +6852,22 @@
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="15" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="N50" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="O50" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="O50" s="14" t="s">
+      <c r="P50" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="P50" s="14" t="s">
+      <c r="Q50" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="Q50" s="14" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>186</v>
       </c>
@@ -6907,12 +6884,12 @@
         <v>11</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="29"/>
       <c r="I51" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J51" s="16"/>
       <c r="K51" s="16">
@@ -6920,22 +6897,22 @@
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="15" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N51" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="O51" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="O51" s="14" t="s">
+      <c r="P51" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="P51" s="14" t="s">
+      <c r="Q51" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="Q51" s="14" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="79" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>186</v>
       </c>
@@ -6957,7 +6934,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="29"/>
       <c r="I52" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J52" s="16"/>
       <c r="K52" s="16">
@@ -6965,22 +6942,22 @@
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="15" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="N52" s="14" t="s">
         <v>154</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="Q52" s="14" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>186</v>
       </c>
@@ -7002,7 +6979,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="29"/>
       <c r="I53" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J53" s="16"/>
       <c r="K53" s="16">
@@ -7010,7 +6987,7 @@
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N53" s="14">
         <v>1</v>
@@ -7025,7 +7002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>186</v>
       </c>
@@ -7047,7 +7024,7 @@
       <c r="G54" s="14"/>
       <c r="H54" s="29"/>
       <c r="I54" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J54" s="16"/>
       <c r="K54" s="16">
@@ -7055,22 +7032,22 @@
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="15" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="N54" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="O54" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="O54" s="14" t="s">
+      <c r="P54" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="P54" s="14" t="s">
+      <c r="Q54" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="Q54" s="14" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="53" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>186</v>
       </c>
@@ -7092,7 +7069,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="29"/>
       <c r="I55" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J55" s="16"/>
       <c r="K55" s="16">
@@ -7100,22 +7077,22 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="15" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="P55" s="14" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="Q55" s="14" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="202" x14ac:dyDescent="0.2">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="202" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>186</v>
       </c>
@@ -7135,13 +7112,13 @@
         <v>193</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="16">
@@ -7149,22 +7126,22 @@
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="15" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="N56" s="14" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="P56" s="14" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="Q56" s="14" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="224" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>186</v>
       </c>
@@ -7184,13 +7161,13 @@
         <v>18</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I57" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J57" s="16"/>
       <c r="K57" s="16">
@@ -7198,22 +7175,22 @@
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="15" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="N57" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="O57" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="O57" s="14" t="s">
+      <c r="P57" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="P57" s="14" t="s">
+      <c r="Q57" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="Q57" s="14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="367" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:17" ht="367" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>186</v>
       </c>
@@ -7233,13 +7210,13 @@
         <v>18</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H58" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J58" s="16"/>
       <c r="K58" s="16">
@@ -7247,7 +7224,7 @@
       </c>
       <c r="L58" s="16"/>
       <c r="M58" s="15" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="N58" s="14">
         <v>38</v>
@@ -7262,7 +7239,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>186</v>
       </c>
@@ -7282,13 +7259,13 @@
         <v>193</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J59" s="16"/>
       <c r="K59" s="16">
@@ -7296,7 +7273,7 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="15" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="N59" s="14">
         <v>2</v>
@@ -7311,7 +7288,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>186</v>
       </c>
@@ -7331,10 +7308,10 @@
         <v>15</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I60" s="15" t="s">
         <v>195</v>
@@ -7345,22 +7322,22 @@
       </c>
       <c r="L60" s="16"/>
       <c r="M60" s="15" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="N60" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="O60" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="O60" s="14" t="s">
+      <c r="P60" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="P60" s="14" t="s">
+      <c r="Q60" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="Q60" s="14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="209" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>186</v>
       </c>
@@ -7380,13 +7357,13 @@
         <v>15</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J61" s="16"/>
       <c r="K61" s="16">
@@ -7394,22 +7371,22 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="15" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="N61" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="O61" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="O61" s="14" t="s">
+      <c r="P61" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="P61" s="14" t="s">
+      <c r="Q61" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="Q61" s="14" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
         <v>186</v>
       </c>
@@ -7439,22 +7416,22 @@
       </c>
       <c r="L62" s="16"/>
       <c r="M62" s="15" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="N62" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="O62" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="O62" s="14" t="s">
+      <c r="P62" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="P62" s="14" t="s">
+      <c r="Q62" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="Q62" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="185" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:17" ht="185" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>186</v>
       </c>
@@ -7474,13 +7451,13 @@
         <v>18</v>
       </c>
       <c r="G63" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H63" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="H63" s="35" t="s">
-        <v>532</v>
-      </c>
       <c r="I63" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J63" s="16"/>
       <c r="K63" s="16">
@@ -7488,22 +7465,22 @@
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="N63" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="N63" s="14" t="s">
+      <c r="O63" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="O63" s="14" t="s">
+      <c r="P63" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="P63" s="14" t="s">
+      <c r="Q63" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="Q63" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>186</v>
       </c>
@@ -7523,13 +7500,13 @@
         <v>18</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16">
@@ -7537,22 +7514,22 @@
       </c>
       <c r="L64" s="16"/>
       <c r="M64" s="15" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="N64" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P64" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q64" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="183" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>186</v>
       </c>
@@ -7572,13 +7549,13 @@
         <v>15</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I65" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16">
@@ -7586,7 +7563,7 @@
       </c>
       <c r="L65" s="16"/>
       <c r="M65" s="15" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="N65" s="14">
         <v>50</v>
@@ -7601,7 +7578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>186</v>
       </c>
@@ -7621,13 +7598,13 @@
         <v>15</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J66" s="16"/>
       <c r="K66" s="16">
@@ -7635,7 +7612,7 @@
       </c>
       <c r="L66" s="16"/>
       <c r="M66" s="15" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="N66" s="14">
         <v>40</v>
@@ -7670,10 +7647,10 @@
         <v>18</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H67" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I67" s="15" t="s">
         <v>203</v>
@@ -7684,7 +7661,7 @@
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="15" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="N67" s="25">
         <v>100</v>
@@ -7699,7 +7676,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>186</v>
       </c>
@@ -7719,10 +7696,10 @@
         <v>193</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H68" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I68" s="15" t="s">
         <v>201</v>
@@ -7733,7 +7710,7 @@
       </c>
       <c r="L68" s="16"/>
       <c r="M68" s="15" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="N68" s="14">
         <v>2</v>
@@ -7748,7 +7725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="157" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>186</v>
       </c>
@@ -7771,10 +7748,10 @@
         <v>27</v>
       </c>
       <c r="H69" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J69" s="16"/>
       <c r="K69" s="16">
@@ -7782,22 +7759,22 @@
       </c>
       <c r="L69" s="16"/>
       <c r="M69" s="15" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="N69" s="14" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="Q69" s="14" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="157" x14ac:dyDescent="0.2">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
         <v>186</v>
       </c>
@@ -7817,13 +7794,13 @@
         <v>193</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="16">
@@ -7831,22 +7808,22 @@
       </c>
       <c r="L70" s="16"/>
       <c r="M70" s="15" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="N70" s="14" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="P70" s="14" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="Q70" s="14" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="183" x14ac:dyDescent="0.2">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>186</v>
       </c>
@@ -7866,13 +7843,13 @@
         <v>15</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="16">
@@ -7880,22 +7857,22 @@
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="15" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="N71" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="O71" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="O71" s="14" t="s">
+      <c r="P71" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q71" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="P71" s="15" t="s">
-        <v>858</v>
-      </c>
-      <c r="Q71" s="15" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>186</v>
       </c>
@@ -7915,13 +7892,13 @@
         <v>193</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H72" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J72" s="16"/>
       <c r="K72" s="16">
@@ -7929,22 +7906,22 @@
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="15" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="N72" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="O72" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="O72" s="14" t="s">
+      <c r="P72" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="P72" s="14" t="s">
+      <c r="Q72" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="Q72" s="14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>186</v>
       </c>
@@ -7967,10 +7944,10 @@
         <v>27</v>
       </c>
       <c r="H73" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I73" s="58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J73" s="59">
         <v>0.73</v>
@@ -7978,22 +7955,22 @@
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
       <c r="M73" s="60" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="N73" s="53" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="O73" s="53" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="P73" s="53" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="Q73" s="53" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" ht="235" x14ac:dyDescent="0.2">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="235" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>186</v>
       </c>
@@ -8013,13 +7990,13 @@
         <v>15</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J74" s="16"/>
       <c r="K74" s="16">
@@ -8027,7 +8004,7 @@
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="15" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="N74" s="23">
         <v>10000</v>
@@ -8062,13 +8039,13 @@
         <v>193</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H75" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J75" s="16"/>
       <c r="K75" s="16">
@@ -8076,22 +8053,22 @@
       </c>
       <c r="L75" s="16"/>
       <c r="M75" s="15" t="s">
-        <v>675</v>
+        <v>1038</v>
       </c>
       <c r="N75" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="O75" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="O75" s="14" t="s">
+      <c r="P75" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="P75" s="14" t="s">
+      <c r="Q75" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="Q75" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>186</v>
       </c>
@@ -8111,13 +8088,13 @@
         <v>15</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J76" s="16"/>
       <c r="K76" s="16">
@@ -8125,22 +8102,22 @@
       </c>
       <c r="L76" s="16"/>
       <c r="M76" s="15" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="N76" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="O76" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="O76" s="14" t="s">
+      <c r="P76" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="P76" s="14" t="s">
+      <c r="Q76" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="Q76" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>186</v>
       </c>
@@ -8163,10 +8140,10 @@
         <v>27</v>
       </c>
       <c r="H77" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I77" s="58" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="J77" s="59">
         <v>0.7</v>
@@ -8174,22 +8151,22 @@
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
       <c r="M77" s="52" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="N77" s="53" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="O77" s="53" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="P77" s="53" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="Q77" s="53" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" ht="126" x14ac:dyDescent="0.2">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>186</v>
       </c>
@@ -8211,7 +8188,7 @@
       <c r="G78" s="14"/>
       <c r="H78" s="29"/>
       <c r="I78" s="58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J78" s="16"/>
       <c r="K78" s="16">
@@ -8219,22 +8196,22 @@
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="15" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="N78" s="14" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="P78" s="14" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="Q78" s="14" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" ht="112" x14ac:dyDescent="0.2">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>186</v>
       </c>
@@ -8254,13 +8231,13 @@
         <v>27</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H79" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I79" s="58" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="J79" s="16"/>
       <c r="K79" s="16">
@@ -8268,22 +8245,22 @@
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="15" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="N79" s="14">
         <v>-1</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="P79" s="14" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="Q79" s="14" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="126" x14ac:dyDescent="0.2">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>186</v>
       </c>
@@ -8306,10 +8283,10 @@
         <v>27</v>
       </c>
       <c r="H80" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I80" s="58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J80" s="61">
         <v>0.7</v>
@@ -8317,19 +8294,19 @@
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
       <c r="M80" s="52" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="N80" s="53" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="O80" s="53" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="P80" s="53" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="Q80" s="53" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="196" x14ac:dyDescent="0.2">
@@ -8352,13 +8329,13 @@
         <v>193</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H81" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J81" s="63"/>
       <c r="K81" s="16">
@@ -8366,22 +8343,22 @@
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="15" t="s">
-        <v>679</v>
+        <v>1039</v>
       </c>
       <c r="N81" s="14" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="P81" s="14" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="Q81" s="14" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>186</v>
       </c>
@@ -8404,10 +8381,10 @@
         <v>27</v>
       </c>
       <c r="H82" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="16">
@@ -8415,22 +8392,22 @@
       </c>
       <c r="L82" s="16"/>
       <c r="M82" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="N82" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="N82" s="14" t="s">
+      <c r="O82" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="O82" s="14" t="s">
+      <c r="P82" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="P82" s="14" t="s">
+      <c r="Q82" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="Q82" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="183" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>186</v>
       </c>
@@ -8450,13 +8427,13 @@
         <v>15</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H83" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J83" s="16"/>
       <c r="K83" s="16">
@@ -8464,22 +8441,22 @@
       </c>
       <c r="L83" s="16"/>
       <c r="M83" s="15" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="N83" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="O83" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="O83" s="14" t="s">
+      <c r="P83" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="P83" s="14" t="s">
+      <c r="Q83" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="Q83" s="14" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" ht="112" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>186</v>
       </c>
@@ -8502,10 +8479,10 @@
         <v>27</v>
       </c>
       <c r="H84" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I84" s="58" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="J84" s="59">
         <v>0.74</v>
@@ -8513,22 +8490,22 @@
       <c r="K84" s="16"/>
       <c r="L84" s="16"/>
       <c r="M84" s="52" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="N84" s="53" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="O84" s="53" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="P84" s="53" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="Q84" s="53" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="352" x14ac:dyDescent="0.2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>186</v>
       </c>
@@ -8548,10 +8525,10 @@
         <v>18</v>
       </c>
       <c r="G85" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H85" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="H85" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="I85" s="15" t="s">
         <v>203</v>
@@ -8562,7 +8539,7 @@
       </c>
       <c r="L85" s="16"/>
       <c r="M85" s="15" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="N85" s="23">
         <v>3000</v>
@@ -8577,7 +8554,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>186</v>
       </c>
@@ -8597,13 +8574,13 @@
         <v>18</v>
       </c>
       <c r="G86" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H86" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="H86" s="35" t="s">
-        <v>532</v>
-      </c>
       <c r="I86" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J86" s="16"/>
       <c r="K86" s="16">
@@ -8611,7 +8588,7 @@
       </c>
       <c r="L86" s="16"/>
       <c r="M86" s="15" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="N86" s="14">
         <v>-7</v>
@@ -8626,7 +8603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>186</v>
       </c>
@@ -8646,10 +8623,10 @@
         <v>193</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H87" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I87" s="15" t="s">
         <v>194</v>
@@ -8660,22 +8637,22 @@
       </c>
       <c r="L87" s="16"/>
       <c r="M87" s="15" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="N87" s="14" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="P87" s="14" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="Q87" s="14" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>186</v>
       </c>
@@ -8695,13 +8672,13 @@
         <v>193</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H88" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J88" s="16"/>
       <c r="K88" s="16">
@@ -8709,22 +8686,22 @@
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="15" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="N88" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="O88" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="O88" s="14" t="s">
+      <c r="P88" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="P88" s="14" t="s">
+      <c r="Q88" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="Q88" s="14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>186</v>
       </c>
@@ -8744,10 +8721,10 @@
         <v>18</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H89" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I89" s="15" t="s">
         <v>187</v>
@@ -8758,7 +8735,7 @@
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="15" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="N89" s="14">
         <v>2</v>
@@ -8773,7 +8750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>186</v>
       </c>
@@ -8793,13 +8770,13 @@
         <v>15</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H90" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J90" s="16"/>
       <c r="K90" s="16">
@@ -8807,7 +8784,7 @@
       </c>
       <c r="L90" s="16"/>
       <c r="M90" s="15" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="N90" s="14">
         <v>2</v>
@@ -8822,7 +8799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>186</v>
       </c>
@@ -8842,13 +8819,13 @@
         <v>193</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H91" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J91" s="16"/>
       <c r="K91" s="16">
@@ -8856,22 +8833,22 @@
       </c>
       <c r="L91" s="16"/>
       <c r="M91" s="15" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="N91" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="O91" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="O91" s="14" t="s">
+      <c r="P91" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="P91" s="14" t="s">
+      <c r="Q91" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="Q91" s="14" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>186</v>
       </c>
@@ -8894,10 +8871,10 @@
         <v>27</v>
       </c>
       <c r="H92" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J92" s="16"/>
       <c r="K92" s="16">
@@ -8905,22 +8882,22 @@
       </c>
       <c r="L92" s="16"/>
       <c r="M92" s="15" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="N92" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="O92" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="O92" s="14" t="s">
+      <c r="P92" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="P92" s="14" t="s">
+      <c r="Q92" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="Q92" s="14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="209" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
         <v>186</v>
       </c>
@@ -8940,13 +8917,13 @@
         <v>15</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H93" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J93" s="16"/>
       <c r="K93" s="16">
@@ -8954,22 +8931,22 @@
       </c>
       <c r="L93" s="16"/>
       <c r="M93" s="15" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="N93" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="O93" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="O93" s="15" t="s">
+      <c r="P93" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="P93" s="26" t="s">
+      <c r="Q93" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="Q93" s="26" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>186</v>
       </c>
@@ -8989,13 +8966,13 @@
         <v>193</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H94" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J94" s="16"/>
       <c r="K94" s="16">
@@ -9003,22 +8980,22 @@
       </c>
       <c r="L94" s="16"/>
       <c r="M94" s="15" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="N94" s="14" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="P94" s="14" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="Q94" s="14" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>186</v>
       </c>
@@ -9038,13 +9015,13 @@
         <v>18</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H95" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J95" s="16"/>
       <c r="K95" s="16">
@@ -9052,22 +9029,22 @@
       </c>
       <c r="L95" s="16"/>
       <c r="M95" s="26" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="N95" s="14" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="P95" s="14" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="Q95" s="14" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" ht="157" x14ac:dyDescent="0.2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>186</v>
       </c>
@@ -9090,10 +9067,10 @@
         <v>27</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J96" s="16"/>
       <c r="K96" s="16">
@@ -9101,22 +9078,22 @@
       </c>
       <c r="L96" s="16"/>
       <c r="M96" s="15" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="N96" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="O96" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="O96" s="14" t="s">
+      <c r="P96" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="P96" s="14" t="s">
+      <c r="Q96" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="Q96" s="14" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>186</v>
       </c>
@@ -9137,7 +9114,7 @@
       </c>
       <c r="G97" s="34"/>
       <c r="H97" s="37" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I97" s="15" t="s">
         <v>202</v>
@@ -9148,22 +9125,22 @@
       </c>
       <c r="L97" s="16"/>
       <c r="M97" s="15" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="N97" s="14" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="P97" s="14" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="Q97" s="14" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" ht="352" x14ac:dyDescent="0.2">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>186</v>
       </c>
@@ -9183,10 +9160,10 @@
         <v>18</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H98" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I98" s="15" t="s">
         <v>203</v>
@@ -9197,7 +9174,7 @@
       </c>
       <c r="L98" s="16"/>
       <c r="M98" s="15" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="N98" s="25">
         <v>1200</v>
@@ -9232,13 +9209,13 @@
         <v>193</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H99" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J99" s="16"/>
       <c r="K99" s="16">
@@ -9246,7 +9223,7 @@
       </c>
       <c r="L99" s="16"/>
       <c r="M99" s="15" t="s">
-        <v>650</v>
+        <v>1040</v>
       </c>
       <c r="N99" s="14">
         <v>15</v>
@@ -9261,7 +9238,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>186</v>
       </c>
@@ -9284,10 +9261,10 @@
         <v>27</v>
       </c>
       <c r="H100" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J100" s="16"/>
       <c r="K100" s="16">
@@ -9295,22 +9272,22 @@
       </c>
       <c r="L100" s="16"/>
       <c r="M100" s="15" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="N100" s="14" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="P100" s="14" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="Q100" s="14" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="183" x14ac:dyDescent="0.2">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
         <v>186</v>
       </c>
@@ -9330,13 +9307,13 @@
         <v>15</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H101" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I101" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J101" s="16"/>
       <c r="K101" s="16">
@@ -9344,7 +9321,7 @@
       </c>
       <c r="L101" s="16"/>
       <c r="M101" s="15" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="N101" s="25">
         <v>140</v>
@@ -9359,7 +9336,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="390" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="390" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>186</v>
       </c>
@@ -9379,13 +9356,13 @@
         <v>193</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H102" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I102" s="62" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="J102" s="59">
         <v>0.79</v>
@@ -9393,22 +9370,22 @@
       <c r="K102" s="16"/>
       <c r="L102" s="16"/>
       <c r="M102" s="60" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="N102" s="53" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="O102" s="53" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="P102" s="53" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="Q102" s="53" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>186</v>
       </c>
@@ -9428,13 +9405,13 @@
         <v>15</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H103" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I103" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J103" s="16"/>
       <c r="K103" s="16">
@@ -9442,22 +9419,22 @@
       </c>
       <c r="L103" s="16"/>
       <c r="M103" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="N103" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="N103" s="14" t="s">
+      <c r="O103" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="O103" s="14" t="s">
+      <c r="P103" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="P103" s="14" t="s">
+      <c r="Q103" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="Q103" s="14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>186</v>
       </c>
@@ -9480,10 +9457,10 @@
         <v>27</v>
       </c>
       <c r="H104" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I104" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J104" s="16"/>
       <c r="K104" s="16">
@@ -9491,7 +9468,7 @@
       </c>
       <c r="L104" s="16"/>
       <c r="M104" s="15" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="N104" s="14">
         <v>8</v>
@@ -9506,7 +9483,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>186</v>
       </c>
@@ -9529,10 +9506,10 @@
         <v>27</v>
       </c>
       <c r="H105" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I105" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J105" s="16"/>
       <c r="K105" s="16">
@@ -9540,22 +9517,22 @@
       </c>
       <c r="L105" s="16"/>
       <c r="M105" s="15" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="N105" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="O105" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="O105" s="14" t="s">
+      <c r="P105" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="P105" s="14" t="s">
+      <c r="Q105" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="Q105" s="14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>186</v>
       </c>
@@ -9578,10 +9555,10 @@
         <v>27</v>
       </c>
       <c r="H106" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I106" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J106" s="16"/>
       <c r="K106" s="16">
@@ -9589,7 +9566,7 @@
       </c>
       <c r="L106" s="16"/>
       <c r="M106" s="15" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="N106" s="14">
         <v>8</v>
@@ -9604,7 +9581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="224" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>186</v>
       </c>
@@ -9624,13 +9601,13 @@
         <v>15</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H107" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I107" s="58" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="J107" s="59">
         <v>0.77</v>
@@ -9638,22 +9615,22 @@
       <c r="K107" s="16"/>
       <c r="L107" s="16"/>
       <c r="M107" s="60" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="N107" s="53" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="O107" s="53" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="P107" s="53" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="Q107" s="53" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
         <v>186</v>
       </c>
@@ -9676,10 +9653,10 @@
         <v>27</v>
       </c>
       <c r="H108" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I108" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J108" s="16"/>
       <c r="K108" s="16">
@@ -9687,22 +9664,22 @@
       </c>
       <c r="L108" s="16"/>
       <c r="M108" s="15" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="N108" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="O108" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="O108" s="14" t="s">
+      <c r="P108" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="P108" s="14" t="s">
+      <c r="Q108" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="Q108" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>186</v>
       </c>
@@ -9722,7 +9699,7 @@
         <v>15</v>
       </c>
       <c r="H109" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I109" s="15" t="s">
         <v>195</v>
@@ -9733,19 +9710,19 @@
       </c>
       <c r="L109" s="16"/>
       <c r="M109" s="15" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="N109" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="O109" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="O109" s="14" t="s">
+      <c r="P109" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="P109" s="14" t="s">
+      <c r="Q109" s="14" t="s">
         <v>347</v>
-      </c>
-      <c r="Q109" s="14" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="209" x14ac:dyDescent="0.2">
@@ -9768,13 +9745,13 @@
         <v>193</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H110" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J110" s="16"/>
       <c r="K110" s="16">
@@ -9782,22 +9759,22 @@
       </c>
       <c r="L110" s="16"/>
       <c r="M110" s="15" t="s">
-        <v>658</v>
+        <v>1041</v>
       </c>
       <c r="N110" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="O110" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="O110" s="14" t="s">
+      <c r="P110" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="P110" s="14" t="s">
+      <c r="Q110" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="Q110" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="157" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>186</v>
       </c>
@@ -9817,10 +9794,10 @@
         <v>27</v>
       </c>
       <c r="H111" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I111" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J111" s="16"/>
       <c r="K111" s="16">
@@ -9828,22 +9805,22 @@
       </c>
       <c r="L111" s="16"/>
       <c r="M111" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="N111" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="N111" s="14" t="s">
+      <c r="O111" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="O111" s="14" t="s">
+      <c r="P111" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="P111" s="14" t="s">
+      <c r="Q111" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="Q111" s="14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
         <v>186</v>
       </c>
@@ -9863,10 +9840,10 @@
         <v>15</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H112" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I112" s="15" t="s">
         <v>195</v>
@@ -9877,22 +9854,22 @@
       </c>
       <c r="L112" s="16"/>
       <c r="M112" s="15" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="N112" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="O112" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="O112" s="14" t="s">
+      <c r="P112" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="P112" s="14" t="s">
+      <c r="Q112" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="Q112" s="14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>186</v>
       </c>
@@ -9914,7 +9891,7 @@
       <c r="G113" s="33"/>
       <c r="H113" s="30"/>
       <c r="I113" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J113" s="16"/>
       <c r="K113" s="16">
@@ -9922,7 +9899,7 @@
       </c>
       <c r="L113" s="16"/>
       <c r="M113" s="15" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="N113" s="14">
         <v>432</v>
@@ -9937,7 +9914,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
         <v>186</v>
       </c>
@@ -9957,13 +9934,13 @@
         <v>193</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H114" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I114" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J114" s="16"/>
       <c r="K114" s="16">
@@ -9971,22 +9948,22 @@
       </c>
       <c r="L114" s="16"/>
       <c r="M114" s="15" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N114" s="14" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="O114" s="14" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="P114" s="14" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="Q114" s="14" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
         <v>186</v>
       </c>
@@ -10006,10 +9983,10 @@
         <v>18</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H115" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I115" s="15" t="s">
         <v>187</v>
@@ -10020,7 +9997,7 @@
       </c>
       <c r="L115" s="16"/>
       <c r="M115" s="15" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="N115" s="14">
         <v>8.3000000000000007</v>
@@ -10035,7 +10012,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="209" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>186</v>
       </c>
@@ -10055,13 +10032,13 @@
         <v>15</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H116" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J116" s="16"/>
       <c r="K116" s="16">
@@ -10069,22 +10046,22 @@
       </c>
       <c r="L116" s="16"/>
       <c r="M116" s="15" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N116" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="O116" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="O116" s="14" t="s">
+      <c r="P116" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="P116" s="14" t="s">
+      <c r="Q116" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="Q116" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" ht="365" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:17" ht="365" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>186</v>
       </c>
@@ -10104,13 +10081,13 @@
         <v>18</v>
       </c>
       <c r="G117" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H117" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="H117" s="35" t="s">
-        <v>532</v>
-      </c>
       <c r="I117" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J117" s="16"/>
       <c r="K117" s="16">
@@ -10118,7 +10095,7 @@
       </c>
       <c r="L117" s="16"/>
       <c r="M117" s="15" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="N117" s="14">
         <v>20</v>
@@ -10133,7 +10110,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>186</v>
       </c>
@@ -10153,13 +10130,13 @@
         <v>193</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H118" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J118" s="16"/>
       <c r="K118" s="16">
@@ -10167,22 +10144,22 @@
       </c>
       <c r="L118" s="16"/>
       <c r="M118" s="15" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="N118" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="O118" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="O118" s="14" t="s">
+      <c r="P118" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="P118" s="14" t="s">
+      <c r="Q118" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="Q118" s="14" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>186</v>
       </c>
@@ -10202,13 +10179,13 @@
         <v>15</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H119" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J119" s="16"/>
       <c r="K119" s="16">
@@ -10216,7 +10193,7 @@
       </c>
       <c r="L119" s="16"/>
       <c r="M119" s="15" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N119" s="14">
         <v>32</v>
@@ -10231,7 +10208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="157" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
         <v>186</v>
       </c>
@@ -10251,13 +10228,13 @@
         <v>27</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H120" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I120" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J120" s="16"/>
       <c r="K120" s="16">
@@ -10265,22 +10242,22 @@
       </c>
       <c r="L120" s="16"/>
       <c r="M120" s="15" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="N120" s="14" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="O120" s="14" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="P120" s="14" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="Q120" s="14" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" ht="352" x14ac:dyDescent="0.2">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
         <v>186</v>
       </c>
@@ -10300,10 +10277,10 @@
         <v>18</v>
       </c>
       <c r="G121" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H121" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="H121" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="I121" s="15" t="s">
         <v>203</v>
@@ -10314,22 +10291,22 @@
       </c>
       <c r="L121" s="16"/>
       <c r="M121" s="15" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="N121" s="14" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="P121" s="14" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="Q121" s="14" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="365" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="365" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
         <v>186</v>
       </c>
@@ -10349,13 +10326,13 @@
         <v>18</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H122" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I122" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J122" s="16"/>
       <c r="K122" s="16">
@@ -10363,22 +10340,22 @@
       </c>
       <c r="L122" s="16"/>
       <c r="M122" s="15" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="N122" s="14" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="P122" s="14" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="Q122" s="14" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
         <v>186</v>
       </c>
@@ -10398,10 +10375,10 @@
         <v>15</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H123" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I123" s="15" t="s">
         <v>195</v>
@@ -10412,7 +10389,7 @@
       </c>
       <c r="L123" s="16"/>
       <c r="M123" s="15" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="N123" s="25">
         <v>1500</v>
@@ -10427,7 +10404,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="235" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="235" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
         <v>186</v>
       </c>
@@ -10449,7 +10426,7 @@
       <c r="G124" s="14"/>
       <c r="H124" s="29"/>
       <c r="I124" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J124" s="16"/>
       <c r="K124" s="16">
@@ -10457,7 +10434,7 @@
       </c>
       <c r="L124" s="16"/>
       <c r="M124" s="15" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N124" s="14">
         <v>0</v>
@@ -10472,7 +10449,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="352" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
         <v>186</v>
       </c>
@@ -10492,10 +10469,10 @@
         <v>18</v>
       </c>
       <c r="G125" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H125" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="H125" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="I125" s="15" t="s">
         <v>203</v>
@@ -10506,7 +10483,7 @@
       </c>
       <c r="L125" s="16"/>
       <c r="M125" s="15" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="N125" s="27">
         <v>0.15</v>
@@ -10521,7 +10498,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
         <v>186</v>
       </c>
@@ -10541,10 +10518,10 @@
         <v>193</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H126" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I126" s="15" t="s">
         <v>194</v>
@@ -10555,22 +10532,22 @@
       </c>
       <c r="L126" s="16"/>
       <c r="M126" s="15" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="N126" s="14" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="O126" s="14" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="P126" s="14" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="Q126" s="14" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
         <v>186</v>
       </c>
@@ -10590,13 +10567,13 @@
         <v>18</v>
       </c>
       <c r="G127" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H127" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="H127" s="35" t="s">
-        <v>532</v>
-      </c>
       <c r="I127" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J127" s="16"/>
       <c r="K127" s="16">
@@ -10604,22 +10581,22 @@
       </c>
       <c r="L127" s="16"/>
       <c r="M127" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N127" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="O127" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="O127" s="14" t="s">
+      <c r="P127" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="P127" s="14" t="s">
+      <c r="Q127" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="Q127" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>186</v>
       </c>
@@ -10649,7 +10626,7 @@
       </c>
       <c r="L128" s="16"/>
       <c r="M128" s="15" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="N128" s="14">
         <v>1</v>
@@ -10664,7 +10641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="209" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>186</v>
       </c>
@@ -10684,13 +10661,13 @@
         <v>15</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H129" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I129" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J129" s="16"/>
       <c r="K129" s="16">
@@ -10698,22 +10675,22 @@
       </c>
       <c r="L129" s="16"/>
       <c r="M129" s="15" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="N129" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="O129" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="O129" s="14" t="s">
+      <c r="P129" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="P129" s="14" t="s">
+      <c r="Q129" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="Q129" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>186</v>
       </c>
@@ -10736,10 +10713,10 @@
         <v>27</v>
       </c>
       <c r="H130" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I130" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J130" s="16"/>
       <c r="K130" s="16">
@@ -10747,22 +10724,22 @@
       </c>
       <c r="L130" s="16"/>
       <c r="M130" s="15" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N130" s="14" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="O130" s="14" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="P130" s="14" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="Q130" s="14" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>186</v>
       </c>
@@ -10782,10 +10759,10 @@
         <v>15</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H131" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I131" s="15" t="s">
         <v>195</v>
@@ -10796,19 +10773,19 @@
       </c>
       <c r="L131" s="16"/>
       <c r="M131" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N131" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="N131" s="14" t="s">
+      <c r="O131" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="O131" s="14" t="s">
+      <c r="P131" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="P131" s="14" t="s">
+      <c r="Q131" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="Q131" s="14" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="170" x14ac:dyDescent="0.2">
@@ -10831,10 +10808,10 @@
         <v>193</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H132" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I132" s="15" t="s">
         <v>201</v>
@@ -10845,7 +10822,7 @@
       </c>
       <c r="L132" s="16"/>
       <c r="M132" s="15" t="s">
-        <v>626</v>
+        <v>1042</v>
       </c>
       <c r="N132" s="25">
         <v>2</v>
@@ -10860,7 +10837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>186</v>
       </c>
@@ -10882,7 +10859,7 @@
       <c r="G133" s="33"/>
       <c r="H133" s="30"/>
       <c r="I133" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J133" s="16"/>
       <c r="K133" s="16">
@@ -10890,19 +10867,19 @@
       </c>
       <c r="L133" s="16"/>
       <c r="M133" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="N133" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="O133" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="O133" s="14" t="s">
+      <c r="P133" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="P133" s="15" t="s">
+      <c r="Q133" s="15" t="s">
         <v>285</v>
-      </c>
-      <c r="Q133" s="15" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="209" x14ac:dyDescent="0.2">
@@ -10925,13 +10902,13 @@
         <v>193</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H134" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I134" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J134" s="16"/>
       <c r="K134" s="16">
@@ -10939,7 +10916,7 @@
       </c>
       <c r="L134" s="16"/>
       <c r="M134" s="15" t="s">
-        <v>628</v>
+        <v>1043</v>
       </c>
       <c r="N134" s="14">
         <v>3</v>
@@ -10954,7 +10931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:17" s="49" customFormat="1" ht="131" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" s="49" customFormat="1" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="42" t="s">
         <v>186</v>
       </c>
@@ -10977,10 +10954,10 @@
         <v>27</v>
       </c>
       <c r="H135" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I135" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J135" s="46"/>
       <c r="K135" s="46">
@@ -10988,7 +10965,7 @@
       </c>
       <c r="L135" s="46"/>
       <c r="M135" s="45" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="N135" s="47">
         <v>1.1256944444444443</v>
@@ -11003,7 +10980,7 @@
         <v>0.12569444444444444</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="144" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
         <v>186</v>
       </c>
@@ -11026,10 +11003,10 @@
         <v>27</v>
       </c>
       <c r="H136" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I136" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J136" s="16"/>
       <c r="K136" s="16">
@@ -11037,22 +11014,22 @@
       </c>
       <c r="L136" s="16"/>
       <c r="M136" s="15" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="N136" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="O136" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="O136" s="14" t="s">
+      <c r="P136" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="P136" s="14" t="s">
+      <c r="Q136" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="Q136" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" ht="326" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:17" ht="326" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
         <v>186</v>
       </c>
@@ -11072,13 +11049,13 @@
         <v>193</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H137" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I137" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J137" s="16"/>
       <c r="K137" s="16">
@@ -11086,13 +11063,13 @@
       </c>
       <c r="L137" s="16"/>
       <c r="M137" s="15" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="N137" s="14" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="O137" s="14" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="P137" s="14">
         <v>4</v>
@@ -11101,7 +11078,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
         <v>186</v>
       </c>
@@ -11124,10 +11101,10 @@
         <v>27</v>
       </c>
       <c r="H138" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I138" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J138" s="16"/>
       <c r="K138" s="16">
@@ -11135,7 +11112,7 @@
       </c>
       <c r="L138" s="16"/>
       <c r="M138" s="15" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="N138" s="14">
         <v>3</v>
@@ -11150,7 +11127,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="157" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
         <v>186</v>
       </c>
@@ -11173,10 +11150,10 @@
         <v>27</v>
       </c>
       <c r="H139" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I139" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J139" s="16"/>
       <c r="K139" s="16">
@@ -11184,7 +11161,7 @@
       </c>
       <c r="L139" s="16"/>
       <c r="M139" s="15" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="N139" s="14">
         <v>10</v>
@@ -11199,7 +11176,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>186</v>
       </c>
@@ -11222,10 +11199,10 @@
         <v>27</v>
       </c>
       <c r="H140" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I140" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J140" s="16"/>
       <c r="K140" s="16">
@@ -11233,22 +11210,22 @@
       </c>
       <c r="L140" s="16"/>
       <c r="M140" s="15" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N140" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="O140" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="O140" s="14" t="s">
+      <c r="P140" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="P140" s="14" t="s">
+      <c r="Q140" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="Q140" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" ht="183" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
         <v>186</v>
       </c>
@@ -11268,13 +11245,13 @@
         <v>193</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H141" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I141" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J141" s="16"/>
       <c r="K141" s="16">
@@ -11282,22 +11259,22 @@
       </c>
       <c r="L141" s="16"/>
       <c r="M141" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="N141" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="N141" s="15" t="s">
+      <c r="O141" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="O141" s="15" t="s">
+      <c r="P141" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="P141" s="15" t="s">
+      <c r="Q141" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="Q141" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" ht="196" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
         <v>186</v>
       </c>
@@ -11320,10 +11297,10 @@
         <v>27</v>
       </c>
       <c r="H142" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I142" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J142" s="16"/>
       <c r="K142" s="16">
@@ -11331,22 +11308,22 @@
       </c>
       <c r="L142" s="16"/>
       <c r="M142" s="15" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="N142" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="O142" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="O142" s="14" t="s">
+      <c r="P142" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="P142" s="14" t="s">
+      <c r="Q142" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="Q142" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>186</v>
       </c>
@@ -11366,10 +11343,10 @@
         <v>18</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H143" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I143" s="15" t="s">
         <v>187</v>
@@ -11395,7 +11372,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
         <v>186</v>
       </c>
@@ -11415,10 +11392,10 @@
         <v>193</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H144" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I144" s="15" t="s">
         <v>194</v>
@@ -11429,22 +11406,22 @@
       </c>
       <c r="L144" s="16"/>
       <c r="M144" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="N144" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="N144" s="14" t="s">
+      <c r="O144" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="O144" s="14" t="s">
+      <c r="P144" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="P144" s="14" t="s">
+      <c r="Q144" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="Q144" s="14" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
         <v>186</v>
       </c>
@@ -11489,7 +11466,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
         <v>186</v>
       </c>
@@ -11509,10 +11486,10 @@
         <v>193</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H146" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I146" s="15" t="s">
         <v>201</v>
@@ -11523,22 +11500,22 @@
       </c>
       <c r="L146" s="16"/>
       <c r="M146" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="N146" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="N146" s="14" t="s">
+      <c r="O146" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="O146" s="14" t="s">
+      <c r="P146" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="P146" s="14" t="s">
+      <c r="Q146" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="Q146" s="14" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
         <v>186</v>
       </c>
@@ -11558,7 +11535,7 @@
         <v>18</v>
       </c>
       <c r="H147" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I147" s="15" t="s">
         <v>202</v>
@@ -11569,22 +11546,22 @@
       </c>
       <c r="L147" s="16"/>
       <c r="M147" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N147" s="14" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="O147" s="14" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="P147" s="14" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="Q147" s="14" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" ht="352" x14ac:dyDescent="0.2">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
         <v>186</v>
       </c>
@@ -11604,10 +11581,10 @@
         <v>18</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H148" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I148" s="15" t="s">
         <v>203</v>
@@ -11653,10 +11630,10 @@
         <v>193</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H149" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I149" s="15" t="s">
         <v>205</v>
@@ -11667,22 +11644,22 @@
       </c>
       <c r="L149" s="16"/>
       <c r="M149" s="24" t="s">
-        <v>206</v>
+        <v>1044</v>
       </c>
       <c r="N149" s="14" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="O149" s="14" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="P149" s="14" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="Q149" s="14" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
         <v>186</v>
       </c>
@@ -11702,13 +11679,13 @@
         <v>18</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H150" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I150" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J150" s="16"/>
       <c r="K150" s="16">
@@ -11716,7 +11693,7 @@
       </c>
       <c r="L150" s="16"/>
       <c r="M150" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N150" s="14">
         <v>-8</v>
@@ -11731,7 +11708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="131" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
         <v>186</v>
       </c>
@@ -11754,10 +11731,10 @@
         <v>27</v>
       </c>
       <c r="H151" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I151" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J151" s="16"/>
       <c r="K151" s="16">
@@ -11765,7 +11742,7 @@
       </c>
       <c r="L151" s="16"/>
       <c r="M151" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N151" s="14">
         <v>2</v>
@@ -11780,7 +11757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="352" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
         <v>186</v>
       </c>
@@ -11800,10 +11777,10 @@
         <v>18</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H152" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I152" s="15" t="s">
         <v>203</v>
@@ -11814,7 +11791,7 @@
       </c>
       <c r="L152" s="16"/>
       <c r="M152" s="15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N152" s="14">
         <v>150</v>
@@ -11829,7 +11806,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
         <v>186</v>
       </c>
@@ -11849,13 +11826,13 @@
         <v>18</v>
       </c>
       <c r="G153" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H153" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="H153" s="35" t="s">
-        <v>532</v>
-      </c>
       <c r="I153" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J153" s="16"/>
       <c r="K153" s="16">
@@ -11863,22 +11840,22 @@
       </c>
       <c r="L153" s="16"/>
       <c r="M153" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N153" s="14" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="O153" s="14" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="P153" s="14" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="Q153" s="14" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
         <v>186</v>
       </c>
@@ -11898,13 +11875,13 @@
         <v>193</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H154" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I154" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J154" s="16"/>
       <c r="K154" s="16">
@@ -11912,22 +11889,22 @@
       </c>
       <c r="L154" s="16"/>
       <c r="M154" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N154" s="14" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="O154" s="14" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="P154" s="14" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="Q154" s="14" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" ht="235" x14ac:dyDescent="0.2">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" ht="235" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
         <v>186</v>
       </c>
@@ -11947,10 +11924,10 @@
         <v>193</v>
       </c>
       <c r="H155" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I155" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J155" s="16"/>
       <c r="K155" s="16">
@@ -11958,22 +11935,22 @@
       </c>
       <c r="L155" s="16"/>
       <c r="M155" s="15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N155" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="O155" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="O155" s="14" t="s">
+      <c r="P155" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="P155" s="14" t="s">
+      <c r="Q155" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="Q155" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" ht="222" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
         <v>186</v>
       </c>
@@ -11996,10 +11973,10 @@
         <v>27</v>
       </c>
       <c r="H156" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I156" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J156" s="16"/>
       <c r="K156" s="16">
@@ -12007,19 +11984,19 @@
       </c>
       <c r="L156" s="16"/>
       <c r="M156" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N156" s="14" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="O156" s="14" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="P156" s="14" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="Q156" s="14" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="157" spans="1:17" ht="209" x14ac:dyDescent="0.2">
@@ -12042,13 +12019,13 @@
         <v>193</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H157" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I157" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J157" s="16"/>
       <c r="K157" s="16">
@@ -12056,22 +12033,22 @@
       </c>
       <c r="L157" s="16"/>
       <c r="M157" s="15" t="s">
-        <v>595</v>
+        <v>1045</v>
       </c>
       <c r="N157" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="O157" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="O157" s="14" t="s">
+      <c r="P157" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="P157" s="14" t="s">
+      <c r="Q157" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="Q157" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>186</v>
       </c>
@@ -12093,7 +12070,7 @@
       <c r="G158" s="33"/>
       <c r="H158" s="30"/>
       <c r="I158" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J158" s="16"/>
       <c r="K158" s="16">
@@ -12101,22 +12078,22 @@
       </c>
       <c r="L158" s="16"/>
       <c r="M158" s="15" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="N158" s="14">
         <v>0</v>
       </c>
       <c r="O158" s="14" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="P158" s="14" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="Q158" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="150" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
         <v>186</v>
       </c>
@@ -12139,10 +12116,10 @@
         <v>27</v>
       </c>
       <c r="H159" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I159" s="62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J159" s="59">
         <v>0.73</v>
@@ -12150,22 +12127,22 @@
       <c r="K159" s="16"/>
       <c r="L159" s="16"/>
       <c r="M159" s="52" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="N159" s="55" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="O159" s="53" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="P159" s="55" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="Q159" s="55" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" ht="209" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
         <v>186</v>
       </c>
@@ -12185,13 +12162,13 @@
         <v>15</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H160" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I160" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J160" s="16"/>
       <c r="K160" s="16">
@@ -12199,7 +12176,7 @@
       </c>
       <c r="L160" s="16"/>
       <c r="M160" s="15" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="N160" s="14">
         <v>10</v>
@@ -12214,7 +12191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="131" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
         <v>186</v>
       </c>
@@ -12237,10 +12214,10 @@
         <v>27</v>
       </c>
       <c r="H161" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I161" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J161" s="16"/>
       <c r="K161" s="16">
@@ -12248,19 +12225,19 @@
       </c>
       <c r="L161" s="16"/>
       <c r="M161" s="15" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="N161" s="14" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="O161" s="14" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="P161" s="14" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="Q161" s="15" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
     </row>
     <row r="162" spans="1:18" ht="170" x14ac:dyDescent="0.2">
@@ -12283,10 +12260,10 @@
         <v>193</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H162" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I162" s="15" t="s">
         <v>201</v>
@@ -12297,7 +12274,7 @@
       </c>
       <c r="L162" s="16"/>
       <c r="M162" s="15" t="s">
-        <v>599</v>
+        <v>1046</v>
       </c>
       <c r="N162" s="25">
         <v>108</v>
@@ -12312,7 +12289,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="196" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
         <v>186</v>
       </c>
@@ -12332,13 +12309,13 @@
         <v>15</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H163" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I163" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J163" s="16"/>
       <c r="K163" s="16">
@@ -12346,22 +12323,22 @@
       </c>
       <c r="L163" s="16"/>
       <c r="M163" s="15" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="N163" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="O163" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="O163" s="14" t="s">
+      <c r="P163" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="P163" s="14" t="s">
+      <c r="Q163" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="Q163" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" ht="183" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:18" ht="183" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
         <v>186</v>
       </c>
@@ -12381,13 +12358,13 @@
         <v>15</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H164" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I164" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J164" s="16"/>
       <c r="K164" s="16">
@@ -12395,7 +12372,7 @@
       </c>
       <c r="L164" s="16"/>
       <c r="M164" s="15" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N164" s="14">
         <v>254</v>
@@ -12410,7 +12387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="144" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
         <v>186</v>
       </c>
@@ -12433,10 +12410,10 @@
         <v>27</v>
       </c>
       <c r="H165" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I165" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J165" s="16"/>
       <c r="K165" s="16">
@@ -12444,22 +12421,22 @@
       </c>
       <c r="L165" s="16"/>
       <c r="M165" s="15" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N165" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="O165" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="O165" s="14" t="s">
+      <c r="P165" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="P165" s="14" t="s">
+      <c r="Q165" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="Q165" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:18" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
         <v>186</v>
       </c>
@@ -12479,13 +12456,13 @@
         <v>18</v>
       </c>
       <c r="G166" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H166" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="H166" s="35" t="s">
-        <v>532</v>
-      </c>
       <c r="I166" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J166" s="16"/>
       <c r="K166" s="16">
@@ -12493,22 +12470,22 @@
       </c>
       <c r="L166" s="16"/>
       <c r="M166" s="15" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="N166" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="O166" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="O166" s="26" t="s">
+      <c r="P166" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="P166" s="15" t="s">
+      <c r="Q166" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="Q166" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:18" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
         <v>186</v>
       </c>
@@ -12528,10 +12505,10 @@
         <v>15</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H167" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I167" s="15" t="s">
         <v>195</v>
@@ -12542,22 +12519,22 @@
       </c>
       <c r="L167" s="16"/>
       <c r="M167" s="15" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N167" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="O167" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="P167" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="O167" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="P167" s="14" t="s">
+      <c r="Q167" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="Q167" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" ht="118" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:18" ht="118" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
         <v>186</v>
       </c>
@@ -12577,10 +12554,10 @@
         <v>15</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H168" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I168" s="15" t="s">
         <v>195</v>
@@ -12591,22 +12568,22 @@
       </c>
       <c r="L168" s="16"/>
       <c r="M168" s="15" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N168" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="O168" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="O168" s="14" t="s">
+      <c r="P168" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="P168" s="14" t="s">
+      <c r="Q168" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="Q168" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" ht="196" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:18" ht="196" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
         <v>186</v>
       </c>
@@ -12626,13 +12603,13 @@
         <v>15</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H169" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I169" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J169" s="16"/>
       <c r="K169" s="16">
@@ -12640,22 +12617,22 @@
       </c>
       <c r="L169" s="16"/>
       <c r="M169" s="15" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N169" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="O169" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="O169" s="14" t="s">
+      <c r="P169" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="P169" s="14" t="s">
+      <c r="Q169" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="Q169" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" ht="131" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:18" ht="131" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
         <v>186</v>
       </c>
@@ -12678,10 +12655,10 @@
         <v>27</v>
       </c>
       <c r="H170" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I170" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J170" s="16"/>
       <c r="K170" s="16">
@@ -12689,22 +12666,22 @@
       </c>
       <c r="L170" s="16"/>
       <c r="M170" s="26" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N170" s="14" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="P170" s="14" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="Q170" s="14" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" ht="287" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="287" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
         <v>186</v>
       </c>
@@ -12724,13 +12701,13 @@
         <v>193</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H171" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I171" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J171" s="16"/>
       <c r="K171" s="16">
@@ -12738,19 +12715,19 @@
       </c>
       <c r="L171" s="16"/>
       <c r="M171" s="26" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="N171" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="O171" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="O171" s="14" t="s">
+      <c r="P171" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="P171" s="14" t="s">
+      <c r="Q171" s="14" t="s">
         <v>258</v>
-      </c>
-      <c r="Q171" s="14" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.2">
@@ -12773,33 +12750,33 @@
         <v>2</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H172" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I172" s="15"/>
       <c r="J172" s="16"/>
       <c r="K172" s="16"/>
       <c r="L172" s="16"/>
       <c r="M172" s="51" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="N172" s="51" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="O172" s="51" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="P172" s="51" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="Q172" s="51" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="R172" s="51"/>
     </row>
-    <row r="173" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
         <v>0</v>
       </c>
@@ -12819,29 +12796,29 @@
         <v>27</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H173" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I173" s="15"/>
       <c r="J173" s="16"/>
       <c r="K173" s="16"/>
       <c r="L173" s="16"/>
       <c r="M173" s="52" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="N173" s="50" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="O173" s="50" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="P173" s="50" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="Q173" s="50" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
@@ -12864,29 +12841,29 @@
         <v>2</v>
       </c>
       <c r="G174" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H174" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I174" s="15"/>
       <c r="J174" s="16"/>
       <c r="K174" s="16"/>
       <c r="L174" s="16"/>
       <c r="M174" s="53" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="N174" s="50" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="O174" s="50" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="P174" s="50" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="Q174" s="50" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
@@ -12909,29 +12886,29 @@
         <v>9</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H175" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I175" s="15"/>
       <c r="J175" s="16"/>
       <c r="K175" s="16"/>
       <c r="L175" s="16"/>
       <c r="M175" s="53" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="N175" s="50" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="O175" s="50" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="P175" s="50" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="Q175" s="50" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.2">
@@ -12954,32 +12931,32 @@
         <v>2</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H176" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I176" s="15"/>
       <c r="J176" s="16"/>
       <c r="K176" s="16"/>
       <c r="L176" s="16"/>
       <c r="M176" s="54" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="N176" s="54" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="O176" s="54" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="P176" s="54" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="Q176" s="54" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
         <v>0</v>
       </c>
@@ -12999,29 +12976,29 @@
         <v>2</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H177" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I177" s="15"/>
       <c r="J177" s="16"/>
       <c r="K177" s="16"/>
       <c r="L177" s="16"/>
       <c r="M177" s="52" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="N177" s="50" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="O177" s="50" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="P177" s="50" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="Q177" s="50" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -13044,32 +13021,32 @@
         <v>2</v>
       </c>
       <c r="G178" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H178" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I178" s="15"/>
       <c r="J178" s="16"/>
       <c r="K178" s="16"/>
       <c r="L178" s="16"/>
       <c r="M178" s="52" t="s">
-        <v>938</v>
+        <v>1047</v>
       </c>
       <c r="N178" s="53" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="O178" s="53" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="P178" s="53" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="Q178" s="53" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
         <v>0</v>
       </c>
@@ -13089,32 +13066,32 @@
         <v>27</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H179" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I179" s="15"/>
       <c r="J179" s="16"/>
       <c r="K179" s="16"/>
       <c r="L179" s="16"/>
       <c r="M179" s="52" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="N179" s="55" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="O179" s="55" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="P179" s="55" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="Q179" s="55" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
         <v>0</v>
       </c>
@@ -13134,29 +13111,29 @@
         <v>27</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H180" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I180" s="15"/>
       <c r="J180" s="16"/>
       <c r="K180" s="16"/>
       <c r="L180" s="16"/>
       <c r="M180" s="53" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="N180" s="55" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="O180" s="55" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="P180" s="55" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="Q180" s="55" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
@@ -13179,29 +13156,29 @@
         <v>2</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H181" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I181" s="15"/>
       <c r="J181" s="16"/>
       <c r="K181" s="16"/>
       <c r="L181" s="16"/>
       <c r="M181" s="53" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="N181" s="53" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="O181" s="53" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P181" s="53" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="Q181" s="53" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
@@ -13224,32 +13201,32 @@
         <v>2</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H182" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I182" s="15"/>
       <c r="J182" s="16"/>
       <c r="K182" s="16"/>
       <c r="L182" s="16"/>
       <c r="M182" s="53" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="N182" s="53" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="O182" s="53" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="P182" s="53" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="Q182" s="53" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
         <v>0</v>
       </c>
@@ -13269,32 +13246,32 @@
         <v>2</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H183" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I183" s="15"/>
       <c r="J183" s="16"/>
       <c r="K183" s="16"/>
       <c r="L183" s="16"/>
       <c r="M183" s="53" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="N183" s="53" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="O183" s="53" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="P183" s="53" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="Q183" s="53" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>0</v>
       </c>
@@ -13314,10 +13291,10 @@
         <v>2</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H184" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I184" s="10"/>
       <c r="J184" s="11"/>
@@ -13339,7 +13316,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>0</v>
       </c>
@@ -13359,10 +13336,10 @@
         <v>18</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H185" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I185" s="10"/>
       <c r="J185" s="11"/>
@@ -13384,7 +13361,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>0</v>
       </c>
@@ -13404,14 +13381,14 @@
         <v>2</v>
       </c>
       <c r="H186" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I186" s="10"/>
       <c r="J186" s="11"/>
       <c r="K186" s="11"/>
       <c r="L186" s="11"/>
       <c r="M186" s="39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N186" s="10">
         <v>50</v>
@@ -13426,7 +13403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>0</v>
       </c>
@@ -13446,10 +13423,10 @@
         <v>2</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H187" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I187" s="10"/>
       <c r="J187" s="11"/>
@@ -13459,19 +13436,19 @@
         <v>64</v>
       </c>
       <c r="N187" s="10" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="O187" s="10" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="P187" s="10" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="Q187" s="10" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
         <v>0</v>
       </c>
@@ -13491,10 +13468,10 @@
         <v>27</v>
       </c>
       <c r="G188" s="32" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H188" s="36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I188" s="10"/>
       <c r="J188" s="11"/>
@@ -13516,7 +13493,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
         <v>0</v>
       </c>
@@ -13536,17 +13513,17 @@
         <v>2</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H189" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I189" s="10"/>
       <c r="J189" s="11"/>
       <c r="K189" s="11"/>
       <c r="L189" s="11"/>
       <c r="M189" s="39" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N189" s="10" t="s">
         <v>160</v>
@@ -13581,10 +13558,10 @@
         <v>2</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H190" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I190" s="10"/>
       <c r="J190" s="11"/>
@@ -13606,7 +13583,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
         <v>0</v>
       </c>
@@ -13626,10 +13603,10 @@
         <v>2</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H191" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I191" s="10"/>
       <c r="J191" s="11"/>
@@ -13651,7 +13628,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>0</v>
       </c>
@@ -13691,7 +13668,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="128" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>0</v>
       </c>
@@ -13711,7 +13688,7 @@
         <v>15</v>
       </c>
       <c r="H193" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I193" s="10"/>
       <c r="J193" s="11"/>
@@ -13733,7 +13710,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>0</v>
       </c>
@@ -13753,7 +13730,7 @@
         <v>27</v>
       </c>
       <c r="H194" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I194" s="10"/>
       <c r="J194" s="11"/>
@@ -13775,7 +13752,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>0</v>
       </c>
@@ -13795,10 +13772,10 @@
         <v>9</v>
       </c>
       <c r="G195" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H195" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I195" s="10"/>
       <c r="J195" s="11"/>
@@ -13820,7 +13797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
         <v>0</v>
       </c>
@@ -13840,10 +13817,10 @@
         <v>2</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H196" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I196" s="10"/>
       <c r="J196" s="11"/>
@@ -13865,7 +13842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
         <v>0</v>
       </c>
@@ -13885,17 +13862,17 @@
         <v>2</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H197" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I197" s="10"/>
       <c r="J197" s="11"/>
       <c r="K197" s="11"/>
       <c r="L197" s="11"/>
       <c r="M197" s="39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N197" s="10" t="s">
         <v>80</v>
@@ -13910,7 +13887,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
         <v>0</v>
       </c>
@@ -13934,7 +13911,7 @@
       <c r="K198" s="11"/>
       <c r="L198" s="11"/>
       <c r="M198" s="39" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N198" s="10" t="s">
         <v>147</v>
@@ -13949,7 +13926,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
         <v>0</v>
       </c>
@@ -13973,7 +13950,7 @@
       <c r="K199" s="11"/>
       <c r="L199" s="11"/>
       <c r="M199" s="39" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N199" s="10" t="s">
         <v>84</v>
@@ -13988,7 +13965,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
         <v>0</v>
       </c>
@@ -14008,10 +13985,10 @@
         <v>15</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H200" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I200" s="10"/>
       <c r="J200" s="11"/>
@@ -14033,7 +14010,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
         <v>0</v>
       </c>
@@ -14053,10 +14030,10 @@
         <v>2</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H201" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I201" s="10"/>
       <c r="J201" s="11"/>
@@ -14078,7 +14055,7 @@
         <v>1483444463</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
         <v>0</v>
       </c>
@@ -14098,10 +14075,10 @@
         <v>2</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H202" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I202" s="10"/>
       <c r="J202" s="11"/>
@@ -14111,16 +14088,16 @@
         <v>89</v>
       </c>
       <c r="N202" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="O202" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="O202" s="10" t="s">
+      <c r="P202" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="P202" s="10" t="s">
+      <c r="Q202" s="10" t="s">
         <v>542</v>
-      </c>
-      <c r="Q202" s="10" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="203" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -14143,32 +14120,32 @@
         <v>2</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H203" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I203" s="10"/>
       <c r="J203" s="11"/>
       <c r="K203" s="11"/>
       <c r="L203" s="11"/>
       <c r="M203" s="39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N203" s="10" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="O203" s="39" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="P203" s="39" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="Q203" s="10" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
         <v>0</v>
       </c>
@@ -14188,10 +14165,10 @@
         <v>27</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H204" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I204" s="10"/>
       <c r="J204" s="11"/>
@@ -14213,7 +14190,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
         <v>0</v>
       </c>
@@ -14233,17 +14210,17 @@
         <v>2</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H205" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I205" s="10"/>
       <c r="J205" s="11"/>
       <c r="K205" s="11"/>
       <c r="L205" s="11"/>
       <c r="M205" s="39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N205" s="10" t="s">
         <v>139</v>
@@ -14258,7 +14235,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
         <v>0</v>
       </c>
@@ -14278,10 +14255,10 @@
         <v>2</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H206" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I206" s="10"/>
       <c r="J206" s="11"/>
@@ -14303,7 +14280,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
         <v>0</v>
       </c>
@@ -14323,32 +14300,32 @@
         <v>2</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H207" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I207" s="10"/>
       <c r="J207" s="11"/>
       <c r="K207" s="11"/>
       <c r="L207" s="11"/>
       <c r="M207" s="39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N207" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="O207" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="O207" s="10" t="s">
+      <c r="P207" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="P207" s="10" t="s">
+      <c r="Q207" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="Q207" s="10" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
         <v>0</v>
       </c>
@@ -14368,10 +14345,10 @@
         <v>2</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H208" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I208" s="10"/>
       <c r="J208" s="11"/>
@@ -14393,7 +14370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
         <v>0</v>
       </c>
@@ -14413,10 +14390,10 @@
         <v>2</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H209" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I209" s="10"/>
       <c r="J209" s="11"/>
@@ -14438,7 +14415,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
         <v>0</v>
       </c>
@@ -14458,32 +14435,32 @@
         <v>2</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H210" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I210" s="10"/>
       <c r="J210" s="11"/>
       <c r="K210" s="11"/>
       <c r="L210" s="11"/>
       <c r="M210" s="39" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N210" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="O210" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="O210" s="10" t="s">
+      <c r="P210" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="P210" s="10" t="s">
+      <c r="Q210" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="Q210" s="10" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
         <v>0</v>
       </c>
@@ -14506,29 +14483,29 @@
         <v>27</v>
       </c>
       <c r="H211" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I211" s="10"/>
       <c r="J211" s="11"/>
       <c r="K211" s="11"/>
       <c r="L211" s="11"/>
       <c r="M211" s="56" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="N211" s="54" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="O211" s="54" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="P211" s="54" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="Q211" s="54" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
         <v>0</v>
       </c>
@@ -14544,10 +14521,10 @@
       <c r="E212" s="9"/>
       <c r="F212" s="10"/>
       <c r="G212" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H212" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I212" s="10"/>
       <c r="J212" s="11"/>
@@ -14575,10 +14552,10 @@
         <v>2</v>
       </c>
       <c r="G213" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H213" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I213" s="10"/>
       <c r="J213" s="11"/>
@@ -14588,7 +14565,7 @@
         <v>5</v>
       </c>
       <c r="N213" s="10" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="O213" s="10" t="s">
         <v>6</v>
@@ -14620,10 +14597,10 @@
         <v>9</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H214" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I214" s="10"/>
       <c r="J214" s="11"/>
@@ -14645,7 +14622,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
         <v>0</v>
       </c>
@@ -14665,10 +14642,10 @@
         <v>2</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H215" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I215" s="10"/>
       <c r="J215" s="11"/>
@@ -14690,7 +14667,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
         <v>0</v>
       </c>
@@ -14710,10 +14687,10 @@
         <v>2</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H216" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I216" s="10"/>
       <c r="J216" s="11"/>
@@ -14723,16 +14700,16 @@
         <v>112</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="O216" s="10" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="P216" s="10" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="Q216" s="10" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
     </row>
     <row r="217" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -14755,10 +14732,10 @@
         <v>2</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H217" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I217" s="10"/>
       <c r="J217" s="11"/>
@@ -14768,7 +14745,7 @@
         <v>14</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="O217" s="10" t="s">
         <v>179</v>
@@ -14780,7 +14757,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>0</v>
       </c>
@@ -14800,10 +14777,10 @@
         <v>15</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H218" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I218" s="10"/>
       <c r="J218" s="11"/>
@@ -14825,7 +14802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>0</v>
       </c>
@@ -14845,10 +14822,10 @@
         <v>2</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H219" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I219" s="10"/>
       <c r="J219" s="11"/>
@@ -14858,19 +14835,19 @@
         <v>17</v>
       </c>
       <c r="N219" s="10" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="O219" s="10" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="P219" s="10" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="Q219" s="10" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>0</v>
       </c>
@@ -14890,10 +14867,10 @@
         <v>18</v>
       </c>
       <c r="G220" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H220" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I220" s="10"/>
       <c r="J220" s="11"/>
@@ -14903,19 +14880,19 @@
         <v>113</v>
       </c>
       <c r="N220" s="10" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="O220" s="10" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="P220" s="10" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="Q220" s="10" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17" ht="96" x14ac:dyDescent="0.2">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
         <v>0</v>
       </c>
@@ -14939,7 +14916,7 @@
       <c r="K221" s="11"/>
       <c r="L221" s="11"/>
       <c r="M221" s="39" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N221" s="10" t="s">
         <v>114</v>
@@ -14974,10 +14951,10 @@
         <v>2</v>
       </c>
       <c r="G222" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H222" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I222" s="10"/>
       <c r="J222" s="11"/>
@@ -14999,7 +14976,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
         <v>0</v>
       </c>
@@ -15019,10 +14996,10 @@
         <v>2</v>
       </c>
       <c r="G223" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H223" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I223" s="10"/>
       <c r="J223" s="11"/>
@@ -15038,13 +15015,13 @@
         <v>-2</v>
       </c>
       <c r="P223" s="10" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="Q223" s="10" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
         <v>0</v>
       </c>
@@ -15064,10 +15041,10 @@
         <v>9</v>
       </c>
       <c r="G224" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H224" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I224" s="10"/>
       <c r="J224" s="11"/>
@@ -15089,7 +15066,7 @@
         <v>38575</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
         <v>0</v>
       </c>
@@ -15109,17 +15086,17 @@
         <v>2</v>
       </c>
       <c r="G225" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H225" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I225" s="10"/>
       <c r="J225" s="11"/>
       <c r="K225" s="11"/>
       <c r="L225" s="11"/>
       <c r="M225" s="39" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N225" s="10">
         <v>1</v>
@@ -15134,7 +15111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>0</v>
       </c>
@@ -15173,7 +15150,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
         <v>0</v>
       </c>
@@ -15193,7 +15170,7 @@
         <v>2</v>
       </c>
       <c r="H227" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I227" s="10"/>
       <c r="J227" s="11"/>
@@ -15215,7 +15192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
         <v>0</v>
       </c>
@@ -15235,10 +15212,10 @@
         <v>18</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H228" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I228" s="10"/>
       <c r="J228" s="11"/>
@@ -15260,7 +15237,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="80" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
         <v>0</v>
       </c>
@@ -15280,10 +15257,10 @@
         <v>15</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H229" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I229" s="10"/>
       <c r="J229" s="11"/>
@@ -15305,7 +15282,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
         <v>0</v>
       </c>
@@ -15325,17 +15302,17 @@
         <v>27</v>
       </c>
       <c r="G230" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H230" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I230" s="10"/>
       <c r="J230" s="11"/>
       <c r="K230" s="11"/>
       <c r="L230" s="11"/>
       <c r="M230" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N230" s="10" t="s">
         <v>28</v>
@@ -15350,7 +15327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="80" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
         <v>0</v>
       </c>
@@ -15370,7 +15347,7 @@
         <v>15</v>
       </c>
       <c r="H231" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I231" s="10"/>
       <c r="J231" s="11"/>
@@ -15380,19 +15357,19 @@
         <v>121</v>
       </c>
       <c r="N231" s="10" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="O231" s="10" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="P231" s="10" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="Q231" s="10" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="232" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
         <v>0</v>
       </c>
@@ -15412,29 +15389,29 @@
         <v>27</v>
       </c>
       <c r="G232" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H232" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I232" s="10"/>
       <c r="J232" s="11"/>
       <c r="K232" s="11"/>
       <c r="L232" s="11"/>
       <c r="M232" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N232" s="10" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="O232" s="10" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="P232" s="10" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="Q232" s="10" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="233" spans="1:17" ht="64" x14ac:dyDescent="0.2">
@@ -15457,10 +15434,10 @@
         <v>2</v>
       </c>
       <c r="G233" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H233" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I233" s="10"/>
       <c r="J233" s="11"/>
@@ -15470,19 +15447,19 @@
         <v>32</v>
       </c>
       <c r="N233" s="39" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="O233" s="39" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="P233" s="39" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="Q233" s="39" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="234" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
         <v>0</v>
       </c>
@@ -15502,10 +15479,10 @@
         <v>2</v>
       </c>
       <c r="G234" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H234" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I234" s="10"/>
       <c r="J234" s="11"/>
@@ -15515,19 +15492,19 @@
         <v>122</v>
       </c>
       <c r="N234" s="10" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="O234" s="10" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="P234" s="10" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="Q234" s="10" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
         <v>0</v>
       </c>
@@ -15547,17 +15524,17 @@
         <v>2</v>
       </c>
       <c r="G235" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H235" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I235" s="10"/>
       <c r="J235" s="11"/>
       <c r="K235" s="11"/>
       <c r="L235" s="11"/>
       <c r="M235" s="39" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N235" s="10" t="s">
         <v>33</v>
@@ -15572,7 +15549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
         <v>0</v>
       </c>
@@ -15592,26 +15569,26 @@
         <v>2</v>
       </c>
       <c r="G236" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H236" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I236" s="10"/>
       <c r="J236" s="11"/>
       <c r="K236" s="11"/>
       <c r="L236" s="11"/>
       <c r="M236" s="39" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N236" s="10" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="O236" s="10">
         <v>-15</v>
       </c>
       <c r="P236" s="10" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="Q236" s="10">
         <v>15</v>
@@ -15637,10 +15614,10 @@
         <v>2</v>
       </c>
       <c r="G237" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H237" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I237" s="10"/>
       <c r="J237" s="11"/>
@@ -15662,7 +15639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
         <v>0</v>
       </c>
@@ -15682,32 +15659,32 @@
         <v>2</v>
       </c>
       <c r="G238" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H238" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I238" s="10"/>
       <c r="J238" s="11"/>
       <c r="K238" s="11"/>
       <c r="L238" s="11"/>
       <c r="M238" s="39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N238" s="10" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="O238" s="10" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="P238" s="10" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="Q238" s="10" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="239" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
         <v>0</v>
       </c>
@@ -15727,7 +15704,7 @@
         <v>2</v>
       </c>
       <c r="H239" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I239" s="10"/>
       <c r="J239" s="11"/>
@@ -15749,7 +15726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
         <v>0</v>
       </c>
@@ -15769,10 +15746,10 @@
         <v>15</v>
       </c>
       <c r="G240" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H240" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I240" s="10"/>
       <c r="J240" s="11"/>
@@ -15794,7 +15771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
         <v>0</v>
       </c>
@@ -15814,10 +15791,10 @@
         <v>2</v>
       </c>
       <c r="G241" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H241" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I241" s="10"/>
       <c r="J241" s="11"/>
@@ -15839,7 +15816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>0</v>
       </c>
@@ -15862,7 +15839,7 @@
         <v>27</v>
       </c>
       <c r="H242" s="36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I242" s="10"/>
       <c r="J242" s="11"/>
@@ -15884,7 +15861,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
         <v>0</v>
       </c>
@@ -15904,10 +15881,10 @@
         <v>2</v>
       </c>
       <c r="G243" s="10" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H243" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I243" s="10"/>
       <c r="J243" s="11"/>
@@ -15917,19 +15894,19 @@
         <v>56</v>
       </c>
       <c r="N243" s="10" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="O243" s="10" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="P243" s="10" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="Q243" s="10" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="244" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
         <v>0</v>
       </c>
@@ -15953,7 +15930,7 @@
       <c r="K244" s="11"/>
       <c r="L244" s="11"/>
       <c r="M244" s="39" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N244" s="10">
         <v>46</v>
@@ -15968,7 +15945,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
         <v>0</v>
       </c>
@@ -15988,7 +15965,7 @@
         <v>2</v>
       </c>
       <c r="H245" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I245" s="10"/>
       <c r="J245" s="11"/>
@@ -16030,10 +16007,10 @@
         <v>2</v>
       </c>
       <c r="G246" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H246" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I246" s="10"/>
       <c r="J246" s="11"/>
@@ -16075,10 +16052,10 @@
         <v>2</v>
       </c>
       <c r="G247" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H247" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I247" s="10"/>
       <c r="J247" s="11"/>
@@ -16088,19 +16065,19 @@
         <v>59</v>
       </c>
       <c r="N247" s="10" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="O247" s="10" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="P247" s="10" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="Q247" s="10" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
         <v>0</v>
       </c>
@@ -16120,14 +16097,14 @@
         <v>2</v>
       </c>
       <c r="H248" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I248" s="10"/>
       <c r="J248" s="11"/>
       <c r="K248" s="11"/>
       <c r="L248" s="11"/>
       <c r="M248" s="39" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N248" s="10">
         <v>-9</v>
@@ -16142,7 +16119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
         <v>0</v>
       </c>
@@ -16162,10 +16139,10 @@
         <v>9</v>
       </c>
       <c r="G249" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H249" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I249" s="10"/>
       <c r="J249" s="11"/>
@@ -16187,7 +16164,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
         <v>0</v>
       </c>
@@ -16211,7 +16188,7 @@
       <c r="K250" s="11"/>
       <c r="L250" s="11"/>
       <c r="M250" s="39" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N250" s="10">
         <v>61</v>
@@ -16226,7 +16203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="8" t="s">
         <v>0</v>
       </c>
@@ -16246,17 +16223,17 @@
         <v>9</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H251" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I251" s="10"/>
       <c r="J251" s="11"/>
       <c r="K251" s="11"/>
       <c r="L251" s="11"/>
       <c r="M251" s="39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N251" s="10" t="s">
         <v>175</v>
@@ -16271,7 +16248,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
         <v>0</v>
       </c>
@@ -16291,10 +16268,10 @@
         <v>15</v>
       </c>
       <c r="G252" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H252" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I252" s="10"/>
       <c r="J252" s="11"/>
@@ -16316,7 +16293,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
         <v>0</v>
       </c>
@@ -16340,7 +16317,7 @@
       <c r="K253" s="11"/>
       <c r="L253" s="11"/>
       <c r="M253" s="39" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N253" s="10" t="s">
         <v>60</v>
@@ -16355,7 +16332,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
         <v>0</v>
       </c>
@@ -16375,17 +16352,17 @@
         <v>18</v>
       </c>
       <c r="G254" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="H254" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="H254" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="I254" s="10"/>
       <c r="J254" s="11"/>
       <c r="K254" s="11"/>
       <c r="L254" s="11"/>
       <c r="M254" s="39" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N254" s="10">
         <v>6</v>
@@ -16400,7 +16377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
         <v>0</v>
       </c>
@@ -16420,10 +16397,10 @@
         <v>18</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H255" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I255" s="10"/>
       <c r="J255" s="11"/>
@@ -16445,7 +16422,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="s">
         <v>0</v>
       </c>
@@ -16468,14 +16445,14 @@
         <v>27</v>
       </c>
       <c r="H256" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I256" s="10"/>
       <c r="J256" s="11"/>
       <c r="K256" s="11"/>
       <c r="L256" s="11"/>
       <c r="M256" s="39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N256" s="10">
         <v>60</v>
@@ -16491,7 +16468,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q256"/>
+  <autoFilter ref="A1:Q256">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Word Problems"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:Q248">
     <sortCondition ref="A2:A248"/>
     <sortCondition ref="B2:B248"/>

--- a/assessments/mathematics/MathItems.xlsx
+++ b/assessments/mathematics/MathItems.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4547,14 +4547,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:R256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M181" sqref="M181"/>
+      <selection pane="bottomRight" activeCell="M191" sqref="M191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4632,7 +4631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>186</v>
       </c>
@@ -4677,7 +4676,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>186</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>186</v>
       </c>
@@ -4767,7 +4766,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>186</v>
       </c>
@@ -4812,7 +4811,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>186</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="137" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="137" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>186</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>186</v>
       </c>
@@ -4947,7 +4946,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>186</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="92" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="92" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>186</v>
       </c>
@@ -5037,7 +5036,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>186</v>
       </c>
@@ -5082,7 +5081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>186</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="163" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="163" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>186</v>
       </c>
@@ -5172,7 +5171,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>186</v>
       </c>
@@ -5217,7 +5216,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>186</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>186</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>186</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>186</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>186</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="168" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>186</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="92" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="92" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>186</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>186</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>186</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>186</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>186</v>
       </c>
@@ -5763,7 +5762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>186</v>
       </c>
@@ -5808,7 +5807,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>186</v>
       </c>
@@ -5902,7 +5901,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="163" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="163" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>186</v>
       </c>
@@ -5947,7 +5946,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>186</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>186</v>
       </c>
@@ -6042,7 +6041,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>186</v>
       </c>
@@ -6088,7 +6087,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>186</v>
       </c>
@@ -6134,7 +6133,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>186</v>
       </c>
@@ -6180,7 +6179,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>186</v>
       </c>
@@ -6226,7 +6225,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="105" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>186</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>186</v>
       </c>
@@ -6317,7 +6316,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>186</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="92" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="92" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>186</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="163" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="163" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>186</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>186</v>
       </c>
@@ -6504,7 +6503,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="137" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="137" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>186</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>186</v>
       </c>
@@ -6596,7 +6595,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>186</v>
       </c>
@@ -6642,7 +6641,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>186</v>
       </c>
@@ -6687,7 +6686,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>186</v>
       </c>
@@ -6732,7 +6731,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>186</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>186</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="66" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="66" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>186</v>
       </c>
@@ -6867,7 +6866,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>186</v>
       </c>
@@ -6912,7 +6911,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="79" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="79" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>186</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>186</v>
       </c>
@@ -7002,7 +7001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>186</v>
       </c>
@@ -7047,7 +7046,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="53" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="53" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>186</v>
       </c>
@@ -7092,7 +7091,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="202" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="202" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>186</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="224" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>186</v>
       </c>
@@ -7190,7 +7189,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="367" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="367" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>186</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>186</v>
       </c>
@@ -7288,7 +7287,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>186</v>
       </c>
@@ -7337,7 +7336,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>186</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
         <v>186</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="185" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="185" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>186</v>
       </c>
@@ -7480,7 +7479,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>186</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>186</v>
       </c>
@@ -7578,7 +7577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>186</v>
       </c>
@@ -7676,7 +7675,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>186</v>
       </c>
@@ -7725,7 +7724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>186</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
         <v>186</v>
       </c>
@@ -7823,7 +7822,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>186</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>186</v>
       </c>
@@ -7921,7 +7920,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>186</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="235" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="235" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>186</v>
       </c>
@@ -8068,7 +8067,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>186</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>186</v>
       </c>
@@ -8166,7 +8165,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="126" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>186</v>
       </c>
@@ -8211,7 +8210,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="112" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>186</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="126" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="126" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>186</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>186</v>
       </c>
@@ -8407,7 +8406,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>186</v>
       </c>
@@ -8456,7 +8455,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="112" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>186</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>186</v>
       </c>
@@ -8554,7 +8553,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>186</v>
       </c>
@@ -8603,7 +8602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>186</v>
       </c>
@@ -8652,7 +8651,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>186</v>
       </c>
@@ -8701,7 +8700,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>186</v>
       </c>
@@ -8750,7 +8749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>186</v>
       </c>
@@ -8799,7 +8798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>186</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>186</v>
       </c>
@@ -8897,7 +8896,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
         <v>186</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>186</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>186</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>186</v>
       </c>
@@ -9093,7 +9092,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>186</v>
       </c>
@@ -9140,7 +9139,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>186</v>
       </c>
@@ -9238,7 +9237,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>186</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
         <v>186</v>
       </c>
@@ -9336,7 +9335,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="390" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="390" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>186</v>
       </c>
@@ -9385,7 +9384,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>186</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>186</v>
       </c>
@@ -9483,7 +9482,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>186</v>
       </c>
@@ -9532,7 +9531,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>186</v>
       </c>
@@ -9581,7 +9580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="224" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>186</v>
       </c>
@@ -9630,7 +9629,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
         <v>186</v>
       </c>
@@ -9679,7 +9678,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>186</v>
       </c>
@@ -9774,7 +9773,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>186</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
         <v>186</v>
       </c>
@@ -9869,7 +9868,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>186</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
         <v>186</v>
       </c>
@@ -9963,7 +9962,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
         <v>186</v>
       </c>
@@ -10012,7 +10011,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>186</v>
       </c>
@@ -10061,7 +10060,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="365" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="365" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>186</v>
       </c>
@@ -10110,7 +10109,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>186</v>
       </c>
@@ -10159,7 +10158,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>186</v>
       </c>
@@ -10208,7 +10207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
         <v>186</v>
       </c>
@@ -10257,7 +10256,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
         <v>186</v>
       </c>
@@ -10306,7 +10305,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="365" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="365" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
         <v>186</v>
       </c>
@@ -10355,7 +10354,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
         <v>186</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="235" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="235" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
         <v>186</v>
       </c>
@@ -10449,7 +10448,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
         <v>186</v>
       </c>
@@ -10498,7 +10497,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
         <v>186</v>
       </c>
@@ -10547,7 +10546,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
         <v>186</v>
       </c>
@@ -10596,7 +10595,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>186</v>
       </c>
@@ -10641,7 +10640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>186</v>
       </c>
@@ -10690,7 +10689,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>186</v>
       </c>
@@ -10739,7 +10738,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>186</v>
       </c>
@@ -10837,7 +10836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>186</v>
       </c>
@@ -10931,7 +10930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:17" s="49" customFormat="1" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" s="49" customFormat="1" ht="131" x14ac:dyDescent="0.2">
       <c r="A135" s="42" t="s">
         <v>186</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>0.12569444444444444</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
         <v>186</v>
       </c>
@@ -11029,7 +11028,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="326" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" ht="326" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
         <v>186</v>
       </c>
@@ -11078,7 +11077,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
         <v>186</v>
       </c>
@@ -11127,7 +11126,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="157" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" ht="157" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
         <v>186</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>186</v>
       </c>
@@ -11225,7 +11224,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="183" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" ht="183" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
         <v>186</v>
       </c>
@@ -11274,7 +11273,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" ht="196" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
         <v>186</v>
       </c>
@@ -11323,7 +11322,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>186</v>
       </c>
@@ -11372,7 +11371,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
         <v>186</v>
       </c>
@@ -11421,7 +11420,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" ht="118" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
         <v>186</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
         <v>186</v>
       </c>
@@ -11515,7 +11514,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
         <v>186</v>
       </c>
@@ -11561,7 +11560,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
         <v>186</v>
       </c>
@@ -11659,7 +11658,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
         <v>186</v>
       </c>
@@ -11708,7 +11707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="131" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
         <v>186</v>
       </c>
@@ -11757,7 +11756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="352" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="352" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
         <v>186</v>
       </c>
@@ -11806,7 +11805,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
         <v>186</v>
       </c>
@@ -11855,7 +11854,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
         <v>186</v>
       </c>
@@ -11904,7 +11903,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="235" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" ht="235" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
         <v>186</v>
       </c>
@@ -11950,7 +11949,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="222" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" ht="222" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
         <v>186</v>
       </c>
@@ -12048,7 +12047,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" ht="170" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>186</v>
       </c>
@@ -12093,7 +12092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" ht="150" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
         <v>186</v>
       </c>
@@ -12142,7 +12141,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="209" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" ht="209" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
         <v>186</v>
       </c>
@@ -12191,7 +12190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" ht="131" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
         <v>186</v>
       </c>
@@ -12289,7 +12288,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" ht="196" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
         <v>186</v>
       </c>
@@ -12338,7 +12337,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="183" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" ht="183" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
         <v>186</v>
       </c>
@@ -12387,7 +12386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" ht="144" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
         <v>186</v>
       </c>
@@ -12436,7 +12435,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" ht="118" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
         <v>186</v>
       </c>
@@ -12485,7 +12484,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" ht="118" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
         <v>186</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="118" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" ht="118" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
         <v>186</v>
       </c>
@@ -12583,7 +12582,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="196" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" ht="196" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
         <v>186</v>
       </c>
@@ -12632,7 +12631,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="131" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" ht="131" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
         <v>186</v>
       </c>
@@ -12681,7 +12680,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="287" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" ht="287" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
         <v>186</v>
       </c>
@@ -12776,7 +12775,7 @@
       </c>
       <c r="R172" s="51"/>
     </row>
-    <row r="173" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
         <v>0</v>
       </c>
@@ -12956,7 +12955,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
         <v>0</v>
       </c>
@@ -13046,7 +13045,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
         <v>0</v>
       </c>
@@ -13091,7 +13090,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
         <v>0</v>
       </c>
@@ -13226,7 +13225,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
         <v>0</v>
       </c>
@@ -13271,7 +13270,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>0</v>
       </c>
@@ -13316,7 +13315,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>0</v>
       </c>
@@ -13361,7 +13360,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>0</v>
       </c>
@@ -13403,7 +13402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>0</v>
       </c>
@@ -13448,7 +13447,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
         <v>0</v>
       </c>
@@ -13493,7 +13492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
         <v>0</v>
       </c>
@@ -13583,7 +13582,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
         <v>0</v>
       </c>
@@ -13628,7 +13627,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>0</v>
       </c>
@@ -13668,7 +13667,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" ht="128" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>0</v>
       </c>
@@ -13710,7 +13709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>0</v>
       </c>
@@ -13752,7 +13751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>0</v>
       </c>
@@ -13797,7 +13796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
         <v>0</v>
       </c>
@@ -13842,7 +13841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
         <v>0</v>
       </c>
@@ -13887,7 +13886,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
         <v>0</v>
       </c>
@@ -13926,7 +13925,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
         <v>0</v>
       </c>
@@ -13965,7 +13964,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
         <v>0</v>
       </c>
@@ -14010,7 +14009,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
         <v>0</v>
       </c>
@@ -14055,7 +14054,7 @@
         <v>1483444463</v>
       </c>
     </row>
-    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
         <v>0</v>
       </c>
@@ -14145,7 +14144,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
         <v>0</v>
       </c>
@@ -14190,7 +14189,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
         <v>0</v>
       </c>
@@ -14235,7 +14234,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
         <v>0</v>
       </c>
@@ -14280,7 +14279,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
         <v>0</v>
       </c>
@@ -14325,7 +14324,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
         <v>0</v>
       </c>
@@ -14370,7 +14369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
         <v>0</v>
       </c>
@@ -14415,7 +14414,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
         <v>0</v>
       </c>
@@ -14460,7 +14459,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
         <v>0</v>
       </c>
@@ -14505,7 +14504,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
         <v>0</v>
       </c>
@@ -14622,7 +14621,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
         <v>0</v>
       </c>
@@ -14667,7 +14666,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
         <v>0</v>
       </c>
@@ -14757,7 +14756,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>0</v>
       </c>
@@ -14802,7 +14801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>0</v>
       </c>
@@ -14847,7 +14846,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>0</v>
       </c>
@@ -14892,7 +14891,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" ht="96" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
         <v>0</v>
       </c>
@@ -14976,7 +14975,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
         <v>0</v>
       </c>
@@ -15021,7 +15020,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
         <v>0</v>
       </c>
@@ -15066,7 +15065,7 @@
         <v>38575</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
         <v>0</v>
       </c>
@@ -15111,7 +15110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>0</v>
       </c>
@@ -15150,7 +15149,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
         <v>0</v>
       </c>
@@ -15192,7 +15191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
         <v>0</v>
       </c>
@@ -15237,7 +15236,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
         <v>0</v>
       </c>
@@ -15282,7 +15281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
         <v>0</v>
       </c>
@@ -15327,7 +15326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
         <v>0</v>
       </c>
@@ -15369,7 +15368,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="232" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
         <v>0</v>
       </c>
@@ -15459,7 +15458,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
         <v>0</v>
       </c>
@@ -15504,7 +15503,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
         <v>0</v>
       </c>
@@ -15549,7 +15548,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
         <v>0</v>
       </c>
@@ -15639,7 +15638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
         <v>0</v>
       </c>
@@ -15684,7 +15683,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
         <v>0</v>
       </c>
@@ -15726,7 +15725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
         <v>0</v>
       </c>
@@ -15771,7 +15770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
         <v>0</v>
       </c>
@@ -15816,7 +15815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>0</v>
       </c>
@@ -15861,7 +15860,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
         <v>0</v>
       </c>
@@ -15906,7 +15905,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
         <v>0</v>
       </c>
@@ -15945,7 +15944,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
         <v>0</v>
       </c>
@@ -16077,7 +16076,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
         <v>0</v>
       </c>
@@ -16119,7 +16118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
         <v>0</v>
       </c>
@@ -16164,7 +16163,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
         <v>0</v>
       </c>
@@ -16203,7 +16202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" s="8" t="s">
         <v>0</v>
       </c>
@@ -16248,7 +16247,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
         <v>0</v>
       </c>
@@ -16293,7 +16292,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
         <v>0</v>
       </c>
@@ -16332,7 +16331,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
         <v>0</v>
       </c>
@@ -16377,7 +16376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
         <v>0</v>
       </c>
@@ -16422,7 +16421,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="s">
         <v>0</v>
       </c>
@@ -16468,13 +16467,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q256">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Word Problems"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q256"/>
   <sortState ref="A2:Q248">
     <sortCondition ref="A2:A248"/>
     <sortCondition ref="B2:B248"/>
